--- a/Data_frame/balancos_definitivos/CIQU4.xlsx
+++ b/Data_frame/balancos_definitivos/CIQU4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY80"/>
+  <dimension ref="A1:BO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,186 +769,6 @@
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2015</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2015</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2015</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2016</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2016</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2016</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2017</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2017</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2017</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2018</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2018</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2018</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2019</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2019</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2019</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1154,114 +974,6 @@
       <c r="BO2" t="n">
         <v>605561.9840000001</v>
       </c>
-      <c r="BP2" t="n">
-        <v>18679674.88</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>28082544.64</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>28004624.384</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>29121523.712</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>29977800.704</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>29063026.688</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>27846506.496</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>28953479.168</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>30544070.656</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>30937206.784</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>80003211.264</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>77682581.50399999</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>88347181.05599999</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>83007045.632</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>80526655.48800001</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>82427887.616</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>82563088.384</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>84166082.56</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>89633464.31999999</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>89874677.76000001</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>93422305.28</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>84219838.464</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>73353756.67200001</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>78617763.84</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>87324868.608</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>81835810.816</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>82843541.50399999</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>88715952.12800001</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>98646687.744</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>99813597.184</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>104818114.56</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>103353868.288</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>115018113.024</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>105783877.632</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>95865479.168</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>96935952.384</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1467,114 +1179,6 @@
       <c r="BO3" t="n">
         <v>350632</v>
       </c>
-      <c r="BP3" t="n">
-        <v>13681732.608</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>11015925.76</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>11092203.52</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>11549115.392</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>12675854.336</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>12060600.32</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>11094685.696</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>12210798.592</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>13743399.936</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>14337250.304</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>63503613.952</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>61320278.016</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>71933616.12800001</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>66723692.544</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>64060194.816</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>65780248.576</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>65967300.608</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>71660314.624</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>76944826.368</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>77164470.272</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>76675489.792</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>71653834.752</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>60493520.896</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>65557176.32</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>75344773.12</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>70019964.928</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>71018553.344</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>76936355.84</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>87109844.992</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>88137170.94400001</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>91153809.40800001</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>89804275.712</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>103862845.44</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>94592385.024</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>84501487.616</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>85746286.59199999</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1780,114 +1384,6 @@
       <c r="BO4" t="n">
         <v>8249</v>
       </c>
-      <c r="BP4" t="n">
-        <v>3998721.024</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>1080587.008</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>1208278.016</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>1273521.024</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>1249523.968</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>1660525.056</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>1228551.936</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>2193569.024</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>2658956.032</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>4396043.776</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>2755710.976</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>5218738.176</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>6024197.12</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>5987884.032</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>4439172.096</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>4282660.096</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>2874424.064</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>661820.992</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>44575</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>21731</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>3206856.96</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>2294609.92</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>796585.024</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>3291644.928</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>2665779.968</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>3766872.064</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>2072050.944</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>2437840.896</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>2048018.944</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>602310.0159999999</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>1756224</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>1014558.016</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>1087435.008</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>1018601.024</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>951896</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>858056</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2093,114 +1589,6 @@
       <c r="BO5" t="n">
         <v>417</v>
       </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>7028304.896</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>8718350.335999999</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>9257633.791999999</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>48580</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>7463176.192</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>5899181.056</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>276908.992</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>1850998.016</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>3201434.112</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>3783112.96</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>5405681.152</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>5568736.768</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>6263742.976</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>2199277.056</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>2257956.096</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>9927566.335999999</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>10632309.76</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2406,114 +1794,6 @@
       <c r="BO6" t="n">
         <v>113002</v>
       </c>
-      <c r="BP6" t="n">
-        <v>9683011.584000001</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>9935338.495999999</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>9883925.504000001</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>10275594.24</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>11213016.064</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>10289410.048</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>9866133.504000001</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>10004109.312</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>11084443.648</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>9941206.016000001</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>60747907.072</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>56101539.84</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>65869950.976</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>60700823.552</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>59401256.96</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>61497589.76</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>63092875.264</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>63833513.984</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>68089896.95999999</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>67809681.40800001</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>73420046.336</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>61703254.016</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>53542592.512</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>61553229.824</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>70330908.67200001</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>62456033.28</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>64674545.664</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>68557680.64</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>78998495.23199999</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>80710688.76800001</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>86534782.976</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>85806252.03200001</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>92195389.44</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>82265243.648</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>82770296.832</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>84028170.23999999</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2719,114 +1999,6 @@
       <c r="BO7" t="n">
         <v>150852</v>
       </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3032,114 +2204,6 @@
       <c r="BO8" t="n">
         <v>0</v>
       </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3345,114 +2409,6 @@
       <c r="BO9" t="n">
         <v>77555</v>
       </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>92006</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>75420</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>192791.008</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>255164.992</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>435395.008</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>497087.008</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>520833.984</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>344892</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>400732</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>382956</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>424929.984</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>504396</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>573844.992</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>571779.008</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>549568</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>647224</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>737651.968</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3658,114 +2614,6 @@
       <c r="BO10" t="n">
         <v>557</v>
       </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>74797</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>143950</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>134419.008</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>111639</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>135491.008</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>159127.008</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>151663.008</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>80680</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>126661</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>132076</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>122414</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3971,114 +2819,6 @@
       <c r="BO11" t="n">
         <v>0</v>
       </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>213314</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>110665</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>13121</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>39465</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>34986</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>219767.008</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>136668</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4284,114 +3024,6 @@
       <c r="BO12" t="n">
         <v>61875</v>
       </c>
-      <c r="BP12" t="n">
-        <v>1885400.96</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>1977331.968</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>2030716.032</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>2189765.12</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>2154823.936</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>2283624.96</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>2456296.96</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>2523057.92</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>2613894.912</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>2641687.04</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>2601786.88</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>2676119.04</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>2677076.992</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>2675589.12</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>2587650.048</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>2695763.968</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>2809647.104</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>2582018.048</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>2566257.92</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>2549067.008</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>2759173.12</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>2450664.96</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>2668347.904</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>2693121.024</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>2700461.056</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>2717911.04</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>2681003.008</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>2715764.992</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>2523298.048</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>2594646.016</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>3366914.048</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>3362341.888</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>2653624.064</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>2694162.944</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>1544806.016</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>1494151.936</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4597,114 +3229,6 @@
       <c r="BO13" t="n">
         <v>0</v>
       </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>66124</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>68296</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>70613</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>73087</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>75481</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4910,114 +3434,6 @@
       <c r="BO14" t="n">
         <v>0</v>
       </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5223,114 +3639,6 @@
       <c r="BO15" t="n">
         <v>15653</v>
       </c>
-      <c r="BP15" t="n">
-        <v>20192</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>24386</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>24974</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>30530</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>41352</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>42232</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>32837</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>42585</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>39195</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>42015</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>44028</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>43497</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>43984</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>52717</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>53607</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5536,114 +3844,6 @@
       <c r="BO16" t="n">
         <v>0</v>
       </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>53003</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>48948</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>19704</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>21143</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>26640</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>27808</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>24591</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>48475</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>20168</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>20638</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>19595</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>16366</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>19188</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>18549</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>30413</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>147960.992</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>150543.008</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>26937</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>22180</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>14983</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>13967</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5849,114 +4049,6 @@
       <c r="BO17" t="n">
         <v>0</v>
       </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6162,114 +4254,6 @@
       <c r="BO18" t="n">
         <v>42531</v>
       </c>
-      <c r="BP18" t="n">
-        <v>756734.0159999999</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>793662.976</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>801036.992</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>718630.0159999999</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>744892.992</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>810060.992</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>940910.0159999999</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>942358.976</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>976606.976</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>1025686.976</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>953340.992</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>1020656</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>1011232</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>996849.024</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6475,114 +4459,6 @@
       <c r="BO19" t="n">
         <v>0</v>
       </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>905344</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>1008472</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>1123321.984</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>936876.992</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>918515.968</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>894174.0159999999</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>1134910.976</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>844960</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>862107.008</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>905700.992</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>927918.976</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>887336</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>914195.968</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>932960</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>924523.008</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>981251.968</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>1362680.064</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>1353058.048</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>1046478.016</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>1090502.016</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>1170966.016</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>1121639.936</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6788,114 +4664,6 @@
       <c r="BO20" t="n">
         <v>0</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7101,114 +4869,6 @@
       <c r="BO21" t="n">
         <v>3691</v>
       </c>
-      <c r="BP21" t="n">
-        <v>1108475.008</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>1159282.944</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>1204705.024</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>1440605.056</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>1302455.04</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>1363036.032</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>1411937.024</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>1465026.944</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>1522611.968</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>1573985.024</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1604418.048</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>1611965.952</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>1621860.992</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>1626023.04</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>1628699.008</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7414,114 +5074,6 @@
       <c r="BO22" t="n">
         <v>126</v>
       </c>
-      <c r="BP22" t="n">
-        <v>58867</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>62578</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>84483</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>111219</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>105108</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>88285</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>94831</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>95822</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>104353</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>104339</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>108207</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>117029</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>120500</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>160788</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>164754</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>249748</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>129197</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>8895027.199999999</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>8857681.92</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>8837810.176000001</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>136371.008</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>8758838.272</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>8787941.376</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>8964622.335999999</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>7753342.976</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>7664197.12</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>7635957.76</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>7623799.808</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>7596638.208</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>7674215.936</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>7047934.976</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>7087431.168</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7727,114 +5279,6 @@
       <c r="BO23" t="n">
         <v>191508</v>
       </c>
-      <c r="BP23" t="n">
-        <v>723915.008</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>726588.992</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>807505.9840000001</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>801699.968</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>751516.992</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>695577.9840000001</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>628976</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>626502.976</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>640099.008</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>604305.024</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>533812</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>494227.008</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>512596</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>464150.016</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>506131.008</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>523616</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>580793.9840000001</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>621512</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>816499.968</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>840497.024</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>961084.032</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>798057.9840000001</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>822632</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>821884.992</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>929880</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>915262.976</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>976547.968</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>924241.9840000001</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>914755.968</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>904611.008</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>1037331.968</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>1019212.032</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>936886.0159999999</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>901548.032</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>903465.9840000001</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>855324.992</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8040,114 +5484,6 @@
       <c r="BO24" t="n">
         <v>1421</v>
       </c>
-      <c r="BP24" t="n">
-        <v>2329757.952</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>14300118.016</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>13989713.92</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>14469725.184</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>14290497.536</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>13934938.112</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>13571716.096</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>13497297.92</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>13442323.456</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>13249625.088</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>13255786.496</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>13074932.736</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>13103395.84</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>12982825.984</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>13207924.736</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>13178509.312</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>13076153.344</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>407212.992</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>448200</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>482838.016</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>12890195.968</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>558451.968</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>581316.992</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>580958.976</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>596406.976</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>518468.992</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>531488</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>515798.016</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>502150.016</v>
-      </c>
-      <c r="CS24" t="n">
-        <v>502964</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>9260057.6</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>9168043.007999999</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>516820.992</v>
-      </c>
-      <c r="CW24" t="n">
-        <v>508359.008</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>8915720.192</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>8840190.976</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8353,114 +5689,6 @@
       <c r="BO25" t="n">
         <v>0</v>
       </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8666,114 +5894,6 @@
       <c r="BO26" t="n">
         <v>605561.9840000001</v>
       </c>
-      <c r="BP26" t="n">
-        <v>18679674.88</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>28082544.64</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>28004624.384</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>29121523.712</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>29977800.704</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>29063026.688</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>27846506.496</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>28953479.168</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>30544070.656</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>30937206.784</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>80003211.264</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>77682581.50399999</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>88347181.05599999</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>83007045.632</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>80526655.48800001</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>82427887.616</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>82563088.384</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>84166082.56</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>89633464.31999999</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>89874677.76000001</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>93422305.28</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>84219838.464</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>73353756.67200001</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>78617763.84</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>87324868.608</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>81835810.816</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>82843541.50399999</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>88715952.12800001</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>98646687.744</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>99813597.184</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>104818114.56</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>103353868.288</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>115018113.024</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>105783877.632</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>95865479.168</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>96935952.384</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8979,114 +6099,6 @@
       <c r="BO27" t="n">
         <v>257020.992</v>
       </c>
-      <c r="BP27" t="n">
-        <v>10267543.552</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>11532514.304</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>7489507.84</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>6377498.112</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>8063953.92</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>6539773.952</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>6695495.168</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>6906661.888</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>7852780.032</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>7396206.08</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>57267113.984</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>52867571.712</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>62597369.856</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>57411559.424</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>53993254.912</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>56350806.016</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>56802840.576</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>67295313.92</v>
-      </c>
-      <c r="CH27" t="n">
-        <v>71158988.8</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>71044235.264</v>
-      </c>
-      <c r="CJ27" t="n">
-        <v>67951849.472</v>
-      </c>
-      <c r="CK27" t="n">
-        <v>65039577.088</v>
-      </c>
-      <c r="CL27" t="n">
-        <v>54108495.872</v>
-      </c>
-      <c r="CM27" t="n">
-        <v>59199631.36</v>
-      </c>
-      <c r="CN27" t="n">
-        <v>67687510.016</v>
-      </c>
-      <c r="CO27" t="n">
-        <v>61905870.848</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>65810595.84</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>71424507.904</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>81683521.536</v>
-      </c>
-      <c r="CS27" t="n">
-        <v>84001923.072</v>
-      </c>
-      <c r="CT27" t="n">
-        <v>78116151.296</v>
-      </c>
-      <c r="CU27" t="n">
-        <v>77118439.42399999</v>
-      </c>
-      <c r="CV27" t="n">
-        <v>98946441.21600001</v>
-      </c>
-      <c r="CW27" t="n">
-        <v>89444196.352</v>
-      </c>
-      <c r="CX27" t="n">
-        <v>71162232.832</v>
-      </c>
-      <c r="CY27" t="n">
-        <v>73323970.56</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9292,114 +6304,6 @@
       <c r="BO28" t="n">
         <v>2016</v>
       </c>
-      <c r="BP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9605,114 +6509,6 @@
       <c r="BO29" t="n">
         <v>18895</v>
       </c>
-      <c r="BP29" t="n">
-        <v>4280529.92</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>6002614.784</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>4337792</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>3555532.032</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>3436056.064</v>
-      </c>
-      <c r="BU29" t="n">
-        <v>2156559.872</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>1977565.056</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>2804785.92</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>3336442.112</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>3394573.056</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>54215761.92</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>48993775.616</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>58552872.96</v>
-      </c>
-      <c r="CC29" t="n">
-        <v>53699104.768</v>
-      </c>
-      <c r="CD29" t="n">
-        <v>51388424.192</v>
-      </c>
-      <c r="CE29" t="n">
-        <v>54079623.168</v>
-      </c>
-      <c r="CF29" t="n">
-        <v>54442983.424</v>
-      </c>
-      <c r="CG29" t="n">
-        <v>64771923.968</v>
-      </c>
-      <c r="CH29" t="n">
-        <v>67991576.57600001</v>
-      </c>
-      <c r="CI29" t="n">
-        <v>67280642.04799999</v>
-      </c>
-      <c r="CJ29" t="n">
-        <v>63975710.72</v>
-      </c>
-      <c r="CK29" t="n">
-        <v>61545246.72</v>
-      </c>
-      <c r="CL29" t="n">
-        <v>52037033.984</v>
-      </c>
-      <c r="CM29" t="n">
-        <v>58724528.128</v>
-      </c>
-      <c r="CN29" t="n">
-        <v>67018571.776</v>
-      </c>
-      <c r="CO29" t="n">
-        <v>61326630.912</v>
-      </c>
-      <c r="CP29" t="n">
-        <v>62350036.992</v>
-      </c>
-      <c r="CQ29" t="n">
-        <v>70844841.984</v>
-      </c>
-      <c r="CR29" t="n">
-        <v>80418717.69599999</v>
-      </c>
-      <c r="CS29" t="n">
-        <v>82933800.95999999</v>
-      </c>
-      <c r="CT29" t="n">
-        <v>73429139.456</v>
-      </c>
-      <c r="CU29" t="n">
-        <v>72197734.40000001</v>
-      </c>
-      <c r="CV29" t="n">
-        <v>94498766.848</v>
-      </c>
-      <c r="CW29" t="n">
-        <v>85410529.28</v>
-      </c>
-      <c r="CX29" t="n">
-        <v>65148174.336</v>
-      </c>
-      <c r="CY29" t="n">
-        <v>66823282.688</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9918,114 +6714,6 @@
       <c r="BO30" t="n">
         <v>14932</v>
       </c>
-      <c r="BP30" t="n">
-        <v>442548</v>
-      </c>
-      <c r="BQ30" t="n">
-        <v>207855.008</v>
-      </c>
-      <c r="BR30" t="n">
-        <v>227120</v>
-      </c>
-      <c r="BS30" t="n">
-        <v>163682</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>275732.992</v>
-      </c>
-      <c r="BU30" t="n">
-        <v>601771.008</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>586606.976</v>
-      </c>
-      <c r="BW30" t="n">
-        <v>444240.992</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>409788.992</v>
-      </c>
-      <c r="BY30" t="n">
-        <v>426153.984</v>
-      </c>
-      <c r="BZ30" t="n">
-        <v>158408.992</v>
-      </c>
-      <c r="CA30" t="n">
-        <v>396191.008</v>
-      </c>
-      <c r="CB30" t="n">
-        <v>286953.984</v>
-      </c>
-      <c r="CC30" t="n">
-        <v>345588</v>
-      </c>
-      <c r="CD30" t="n">
-        <v>227286</v>
-      </c>
-      <c r="CE30" t="n">
-        <v>414064</v>
-      </c>
-      <c r="CF30" t="n">
-        <v>412776.992</v>
-      </c>
-      <c r="CG30" t="n">
-        <v>146767.008</v>
-      </c>
-      <c r="CH30" t="n">
-        <v>190383.008</v>
-      </c>
-      <c r="CI30" t="n">
-        <v>95412</v>
-      </c>
-      <c r="CJ30" t="n">
-        <v>82532</v>
-      </c>
-      <c r="CK30" t="n">
-        <v>34698</v>
-      </c>
-      <c r="CL30" t="n">
-        <v>99414</v>
-      </c>
-      <c r="CM30" t="n">
-        <v>182326</v>
-      </c>
-      <c r="CN30" t="n">
-        <v>236452</v>
-      </c>
-      <c r="CO30" t="n">
-        <v>261626</v>
-      </c>
-      <c r="CP30" t="n">
-        <v>122489</v>
-      </c>
-      <c r="CQ30" t="n">
-        <v>195696</v>
-      </c>
-      <c r="CR30" t="n">
-        <v>95655</v>
-      </c>
-      <c r="CS30" t="n">
-        <v>148047.008</v>
-      </c>
-      <c r="CT30" t="n">
-        <v>289950.016</v>
-      </c>
-      <c r="CU30" t="n">
-        <v>287276.992</v>
-      </c>
-      <c r="CV30" t="n">
-        <v>147767.008</v>
-      </c>
-      <c r="CW30" t="n">
-        <v>123389</v>
-      </c>
-      <c r="CX30" t="n">
-        <v>168004</v>
-      </c>
-      <c r="CY30" t="n">
-        <v>190848.992</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -10231,114 +6919,6 @@
       <c r="BO31" t="n">
         <v>203656</v>
       </c>
-      <c r="BP31" t="n">
-        <v>4833602.048</v>
-      </c>
-      <c r="BQ31" t="n">
-        <v>5051879.936</v>
-      </c>
-      <c r="BR31" t="n">
-        <v>2043750.016</v>
-      </c>
-      <c r="BS31" t="n">
-        <v>2143425.024</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>3291227.904</v>
-      </c>
-      <c r="BU31" t="n">
-        <v>3244736</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>3003162.112</v>
-      </c>
-      <c r="BW31" t="n">
-        <v>3017847.04</v>
-      </c>
-      <c r="BX31" t="n">
-        <v>2921001.984</v>
-      </c>
-      <c r="BY31" t="n">
-        <v>2869871.104</v>
-      </c>
-      <c r="BZ31" t="n">
-        <v>1839559.04</v>
-      </c>
-      <c r="CA31" t="n">
-        <v>2730298.112</v>
-      </c>
-      <c r="CB31" t="n">
-        <v>2827718.912</v>
-      </c>
-      <c r="CC31" t="n">
-        <v>2699367.936</v>
-      </c>
-      <c r="CD31" t="n">
-        <v>1332732.032</v>
-      </c>
-      <c r="CE31" t="n">
-        <v>1073726.016</v>
-      </c>
-      <c r="CF31" t="n">
-        <v>1033617.984</v>
-      </c>
-      <c r="CG31" t="n">
-        <v>1921889.024</v>
-      </c>
-      <c r="CH31" t="n">
-        <v>2372303.104</v>
-      </c>
-      <c r="CI31" t="n">
-        <v>3358117.888</v>
-      </c>
-      <c r="CJ31" t="n">
-        <v>918337.024</v>
-      </c>
-      <c r="CK31" t="n">
-        <v>3193812.992</v>
-      </c>
-      <c r="CL31" t="n">
-        <v>1721741.952</v>
-      </c>
-      <c r="CM31" t="n">
-        <v>44298</v>
-      </c>
-      <c r="CN31" t="n">
-        <v>40214</v>
-      </c>
-      <c r="CO31" t="n">
-        <v>43972</v>
-      </c>
-      <c r="CP31" t="n">
-        <v>3054348.032</v>
-      </c>
-      <c r="CQ31" t="n">
-        <v>49238</v>
-      </c>
-      <c r="CR31" t="n">
-        <v>652144</v>
-      </c>
-      <c r="CS31" t="n">
-        <v>521303.008</v>
-      </c>
-      <c r="CT31" t="n">
-        <v>3576704</v>
-      </c>
-      <c r="CU31" t="n">
-        <v>3210036.992</v>
-      </c>
-      <c r="CV31" t="n">
-        <v>3623321.088</v>
-      </c>
-      <c r="CW31" t="n">
-        <v>3418225.92</v>
-      </c>
-      <c r="CX31" t="n">
-        <v>4389523.968</v>
-      </c>
-      <c r="CY31" t="n">
-        <v>3410572.032</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -10544,114 +7124,6 @@
       <c r="BO32" t="n">
         <v>0</v>
       </c>
-      <c r="BP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10857,114 +7329,6 @@
       <c r="BO33" t="n">
         <v>157</v>
       </c>
-      <c r="BP33" t="n">
-        <v>475800.992</v>
-      </c>
-      <c r="BQ33" t="n">
-        <v>54500</v>
-      </c>
-      <c r="BR33" t="n">
-        <v>524784.992</v>
-      </c>
-      <c r="BS33" t="n">
-        <v>66600</v>
-      </c>
-      <c r="BT33" t="n">
-        <v>540937.9840000001</v>
-      </c>
-      <c r="BU33" t="n">
-        <v>79000</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX33" t="n">
-        <v>587560</v>
-      </c>
-      <c r="BY33" t="n">
-        <v>165500</v>
-      </c>
-      <c r="BZ33" t="n">
-        <v>536881.9840000001</v>
-      </c>
-      <c r="CA33" t="n">
-        <v>161000</v>
-      </c>
-      <c r="CB33" t="n">
-        <v>270470.016</v>
-      </c>
-      <c r="CC33" t="n">
-        <v>150600</v>
-      </c>
-      <c r="CD33" t="n">
-        <v>482398.016</v>
-      </c>
-      <c r="CE33" t="n">
-        <v>129625</v>
-      </c>
-      <c r="CF33" t="n">
-        <v>140687.008</v>
-      </c>
-      <c r="CG33" t="n">
-        <v>125655</v>
-      </c>
-      <c r="CH33" t="n">
-        <v>123179</v>
-      </c>
-      <c r="CI33" t="n">
-        <v>108393</v>
-      </c>
-      <c r="CJ33" t="n">
-        <v>72183</v>
-      </c>
-      <c r="CK33" t="n">
-        <v>55113</v>
-      </c>
-      <c r="CL33" t="n">
-        <v>30735</v>
-      </c>
-      <c r="CM33" t="n">
-        <v>64411</v>
-      </c>
-      <c r="CN33" t="n">
-        <v>143723.008</v>
-      </c>
-      <c r="CO33" t="n">
-        <v>83876</v>
-      </c>
-      <c r="CP33" t="n">
-        <v>61509</v>
-      </c>
-      <c r="CQ33" t="n">
-        <v>71966</v>
-      </c>
-      <c r="CR33" t="n">
-        <v>196700.992</v>
-      </c>
-      <c r="CS33" t="n">
-        <v>62637</v>
-      </c>
-      <c r="CT33" t="n">
-        <v>220883.008</v>
-      </c>
-      <c r="CU33" t="n">
-        <v>142228.992</v>
-      </c>
-      <c r="CV33" t="n">
-        <v>224211.008</v>
-      </c>
-      <c r="CW33" t="n">
-        <v>189616.992</v>
-      </c>
-      <c r="CX33" t="n">
-        <v>196970</v>
-      </c>
-      <c r="CY33" t="n">
-        <v>191719.008</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11170,114 +7534,6 @@
       <c r="BO34" t="n">
         <v>7713</v>
       </c>
-      <c r="BP34" t="n">
-        <v>235063.008</v>
-      </c>
-      <c r="BQ34" t="n">
-        <v>215664</v>
-      </c>
-      <c r="BR34" t="n">
-        <v>356061.024</v>
-      </c>
-      <c r="BS34" t="n">
-        <v>448259.008</v>
-      </c>
-      <c r="BT34" t="n">
-        <v>519999.0399999999</v>
-      </c>
-      <c r="BU34" t="n">
-        <v>457707.008</v>
-      </c>
-      <c r="BV34" t="n">
-        <v>1128161.024</v>
-      </c>
-      <c r="BW34" t="n">
-        <v>639788.032</v>
-      </c>
-      <c r="BX34" t="n">
-        <v>597987.0079999999</v>
-      </c>
-      <c r="BY34" t="n">
-        <v>540108</v>
-      </c>
-      <c r="BZ34" t="n">
-        <v>516503.0399999999</v>
-      </c>
-      <c r="CA34" t="n">
-        <v>586307.008</v>
-      </c>
-      <c r="CB34" t="n">
-        <v>659350.976</v>
-      </c>
-      <c r="CC34" t="n">
-        <v>516900.032</v>
-      </c>
-      <c r="CD34" t="n">
-        <v>562417.9839999999</v>
-      </c>
-      <c r="CE34" t="n">
-        <v>653762.008</v>
-      </c>
-      <c r="CF34" t="n">
-        <v>772772.96</v>
-      </c>
-      <c r="CG34" t="n">
-        <v>329073.992</v>
-      </c>
-      <c r="CH34" t="n">
-        <v>481547.0159999999</v>
-      </c>
-      <c r="CI34" t="n">
-        <v>201674.008</v>
-      </c>
-      <c r="CJ34" t="n">
-        <v>2903084.072</v>
-      </c>
-      <c r="CK34" t="n">
-        <v>210707</v>
-      </c>
-      <c r="CL34" t="n">
-        <v>219575</v>
-      </c>
-      <c r="CM34" t="n">
-        <v>184068.008</v>
-      </c>
-      <c r="CN34" t="n">
-        <v>248552.992</v>
-      </c>
-      <c r="CO34" t="n">
-        <v>189764.992</v>
-      </c>
-      <c r="CP34" t="n">
-        <v>222215</v>
-      </c>
-      <c r="CQ34" t="n">
-        <v>262761.008</v>
-      </c>
-      <c r="CR34" t="n">
-        <v>320299.008</v>
-      </c>
-      <c r="CS34" t="n">
-        <v>336135.992</v>
-      </c>
-      <c r="CT34" t="n">
-        <v>599484.992</v>
-      </c>
-      <c r="CU34" t="n">
-        <v>1281160.064</v>
-      </c>
-      <c r="CV34" t="n">
-        <v>452369.9839999999</v>
-      </c>
-      <c r="CW34" t="n">
-        <v>302435.008</v>
-      </c>
-      <c r="CX34" t="n">
-        <v>1259556.976</v>
-      </c>
-      <c r="CY34" t="n">
-        <v>2707546.016</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11483,114 +7739,6 @@
       <c r="BO35" t="n">
         <v>9652</v>
       </c>
-      <c r="BP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11796,114 +7944,6 @@
       <c r="BO36" t="n">
         <v>0</v>
       </c>
-      <c r="BP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12109,114 +8149,6 @@
       <c r="BO37" t="n">
         <v>52366</v>
       </c>
-      <c r="BP37" t="n">
-        <v>4087729.92</v>
-      </c>
-      <c r="BQ37" t="n">
-        <v>8035318.784</v>
-      </c>
-      <c r="BR37" t="n">
-        <v>11558480.896</v>
-      </c>
-      <c r="BS37" t="n">
-        <v>12960946.176</v>
-      </c>
-      <c r="BT37" t="n">
-        <v>11749879.808</v>
-      </c>
-      <c r="BU37" t="n">
-        <v>11453799.424</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>9604732.927999999</v>
-      </c>
-      <c r="BW37" t="n">
-        <v>9692826.624</v>
-      </c>
-      <c r="BX37" t="n">
-        <v>9788300.288000001</v>
-      </c>
-      <c r="BY37" t="n">
-        <v>9790386.176000001</v>
-      </c>
-      <c r="BZ37" t="n">
-        <v>8407007.232000001</v>
-      </c>
-      <c r="CA37" t="n">
-        <v>10354884.608</v>
-      </c>
-      <c r="CB37" t="n">
-        <v>10388870.144</v>
-      </c>
-      <c r="CC37" t="n">
-        <v>10433201.152</v>
-      </c>
-      <c r="CD37" t="n">
-        <v>10929004.544</v>
-      </c>
-      <c r="CE37" t="n">
-        <v>11055591.424</v>
-      </c>
-      <c r="CF37" t="n">
-        <v>10890157.056</v>
-      </c>
-      <c r="CG37" t="n">
-        <v>7830639.104</v>
-      </c>
-      <c r="CH37" t="n">
-        <v>9342442.495999999</v>
-      </c>
-      <c r="CI37" t="n">
-        <v>9532493.823999999</v>
-      </c>
-      <c r="CJ37" t="n">
-        <v>10405516.288</v>
-      </c>
-      <c r="CK37" t="n">
-        <v>9923019.776000001</v>
-      </c>
-      <c r="CL37" t="n">
-        <v>10099348.48</v>
-      </c>
-      <c r="CM37" t="n">
-        <v>10262232.064</v>
-      </c>
-      <c r="CN37" t="n">
-        <v>10146500.608</v>
-      </c>
-      <c r="CO37" t="n">
-        <v>10412997.632</v>
-      </c>
-      <c r="CP37" t="n">
-        <v>7225667.072</v>
-      </c>
-      <c r="CQ37" t="n">
-        <v>7467338.24</v>
-      </c>
-      <c r="CR37" t="n">
-        <v>7072584.192</v>
-      </c>
-      <c r="CS37" t="n">
-        <v>5641307.136</v>
-      </c>
-      <c r="CT37" t="n">
-        <v>13039984.64</v>
-      </c>
-      <c r="CU37" t="n">
-        <v>12523095.04</v>
-      </c>
-      <c r="CV37" t="n">
-        <v>5143098.88</v>
-      </c>
-      <c r="CW37" t="n">
-        <v>5158230.016</v>
-      </c>
-      <c r="CX37" t="n">
-        <v>10186511.36</v>
-      </c>
-      <c r="CY37" t="n">
-        <v>8822044.672</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12422,114 +8354,6 @@
       <c r="BO38" t="n">
         <v>43669</v>
       </c>
-      <c r="BP38" t="n">
-        <v>2506139.904</v>
-      </c>
-      <c r="BQ38" t="n">
-        <v>6344171.008</v>
-      </c>
-      <c r="BR38" t="n">
-        <v>9967976.448000001</v>
-      </c>
-      <c r="BS38" t="n">
-        <v>11252097.024</v>
-      </c>
-      <c r="BT38" t="n">
-        <v>10008264.704</v>
-      </c>
-      <c r="BU38" t="n">
-        <v>9682692.096000001</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>7810497.024</v>
-      </c>
-      <c r="BW38" t="n">
-        <v>7830874.112</v>
-      </c>
-      <c r="BX38" t="n">
-        <v>7870107.136</v>
-      </c>
-      <c r="BY38" t="n">
-        <v>7829512.192</v>
-      </c>
-      <c r="BZ38" t="n">
-        <v>6416521.216</v>
-      </c>
-      <c r="CA38" t="n">
-        <v>6385979.904</v>
-      </c>
-      <c r="CB38" t="n">
-        <v>6417633.792</v>
-      </c>
-      <c r="CC38" t="n">
-        <v>6362827.776</v>
-      </c>
-      <c r="CD38" t="n">
-        <v>6822505.984</v>
-      </c>
-      <c r="CE38" t="n">
-        <v>6946977.792</v>
-      </c>
-      <c r="CF38" t="n">
-        <v>6829359.104</v>
-      </c>
-      <c r="CG38" t="n">
-        <v>5270625.792</v>
-      </c>
-      <c r="CH38" t="n">
-        <v>6778701.824</v>
-      </c>
-      <c r="CI38" t="n">
-        <v>6815757.824</v>
-      </c>
-      <c r="CJ38" t="n">
-        <v>8327298.048</v>
-      </c>
-      <c r="CK38" t="n">
-        <v>6908802.048</v>
-      </c>
-      <c r="CL38" t="n">
-        <v>6931933.184</v>
-      </c>
-      <c r="CM38" t="n">
-        <v>6947891.2</v>
-      </c>
-      <c r="CN38" t="n">
-        <v>6901821.952</v>
-      </c>
-      <c r="CO38" t="n">
-        <v>6949608.96</v>
-      </c>
-      <c r="CP38" t="n">
-        <v>3879025.92</v>
-      </c>
-      <c r="CQ38" t="n">
-        <v>3916339.968</v>
-      </c>
-      <c r="CR38" t="n">
-        <v>3382301.952</v>
-      </c>
-      <c r="CS38" t="n">
-        <v>3376664.064</v>
-      </c>
-      <c r="CT38" t="n">
-        <v>3370957.056</v>
-      </c>
-      <c r="CU38" t="n">
-        <v>3365319.936</v>
-      </c>
-      <c r="CV38" t="n">
-        <v>3019749.888</v>
-      </c>
-      <c r="CW38" t="n">
-        <v>3014492.928</v>
-      </c>
-      <c r="CX38" t="n">
-        <v>3009165.056</v>
-      </c>
-      <c r="CY38" t="n">
-        <v>3003809.024</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12735,114 +8559,6 @@
       <c r="BO39" t="n">
         <v>0</v>
       </c>
-      <c r="BP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13048,114 +8764,6 @@
       <c r="BO40" t="n">
         <v>408</v>
       </c>
-      <c r="BP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA40" t="n">
-        <v>2028694.016</v>
-      </c>
-      <c r="CB40" t="n">
-        <v>2035406.976</v>
-      </c>
-      <c r="CC40" t="n">
-        <v>2216731.904</v>
-      </c>
-      <c r="CD40" t="n">
-        <v>2232372.992</v>
-      </c>
-      <c r="CE40" t="n">
-        <v>2218640.896</v>
-      </c>
-      <c r="CF40" t="n">
-        <v>2163973.888</v>
-      </c>
-      <c r="CG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ40" t="n">
-        <v>174400</v>
-      </c>
-      <c r="CK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO40" t="n">
-        <v>1608061.952</v>
-      </c>
-      <c r="CP40" t="n">
-        <v>1449747.968</v>
-      </c>
-      <c r="CQ40" t="n">
-        <v>1612672</v>
-      </c>
-      <c r="CR40" t="n">
-        <v>1704398.976</v>
-      </c>
-      <c r="CS40" t="n">
-        <v>224748.992</v>
-      </c>
-      <c r="CT40" t="n">
-        <v>7385226.24</v>
-      </c>
-      <c r="CU40" t="n">
-        <v>6874856.96</v>
-      </c>
-      <c r="CV40" t="n">
-        <v>61450</v>
-      </c>
-      <c r="CW40" t="n">
-        <v>67392</v>
-      </c>
-      <c r="CX40" t="n">
-        <v>6851321.856</v>
-      </c>
-      <c r="CY40" t="n">
-        <v>5493877.248</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13361,114 +8969,6 @@
       <c r="BO41" t="n">
         <v>1695</v>
       </c>
-      <c r="BP41" t="n">
-        <v>344664.992</v>
-      </c>
-      <c r="BQ41" t="n">
-        <v>407724.992</v>
-      </c>
-      <c r="BR41" t="n">
-        <v>263726</v>
-      </c>
-      <c r="BS41" t="n">
-        <v>324249.984</v>
-      </c>
-      <c r="BT41" t="n">
-        <v>303678.016</v>
-      </c>
-      <c r="BU41" t="n">
-        <v>273067.008</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>238182</v>
-      </c>
-      <c r="BW41" t="n">
-        <v>232636</v>
-      </c>
-      <c r="BX41" t="n">
-        <v>224328.992</v>
-      </c>
-      <c r="BY41" t="n">
-        <v>213475.008</v>
-      </c>
-      <c r="BZ41" t="n">
-        <v>211171.008</v>
-      </c>
-      <c r="CA41" t="n">
-        <v>194259.008</v>
-      </c>
-      <c r="CB41" t="n">
-        <v>194512</v>
-      </c>
-      <c r="CC41" t="n">
-        <v>118906</v>
-      </c>
-      <c r="CD41" t="n">
-        <v>128144</v>
-      </c>
-      <c r="CE41" t="n">
-        <v>132272</v>
-      </c>
-      <c r="CF41" t="n">
-        <v>115246</v>
-      </c>
-      <c r="CG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ41" t="n">
-        <v>70747</v>
-      </c>
-      <c r="CK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT41" t="n">
-        <v>6188</v>
-      </c>
-      <c r="CU41" t="n">
-        <v>6188</v>
-      </c>
-      <c r="CV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13674,114 +9174,6 @@
       <c r="BO42" t="n">
         <v>0</v>
       </c>
-      <c r="BP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13987,114 +9379,6 @@
       <c r="BO43" t="n">
         <v>6594</v>
       </c>
-      <c r="BP43" t="n">
-        <v>1223633.024</v>
-      </c>
-      <c r="BQ43" t="n">
-        <v>1272756.992</v>
-      </c>
-      <c r="BR43" t="n">
-        <v>1315673.984</v>
-      </c>
-      <c r="BS43" t="n">
-        <v>1370131.968</v>
-      </c>
-      <c r="BT43" t="n">
-        <v>1420269.952</v>
-      </c>
-      <c r="BU43" t="n">
-        <v>1482173.952</v>
-      </c>
-      <c r="BV43" t="n">
-        <v>1539481.984</v>
-      </c>
-      <c r="BW43" t="n">
-        <v>1602301.952</v>
-      </c>
-      <c r="BX43" t="n">
-        <v>1659419.008</v>
-      </c>
-      <c r="BY43" t="n">
-        <v>1715928.96</v>
-      </c>
-      <c r="BZ43" t="n">
-        <v>1742119.936</v>
-      </c>
-      <c r="CA43" t="n">
-        <v>1745952</v>
-      </c>
-      <c r="CB43" t="n">
-        <v>1741316.992</v>
-      </c>
-      <c r="CC43" t="n">
-        <v>1734734.976</v>
-      </c>
-      <c r="CD43" t="n">
-        <v>1745981.952</v>
-      </c>
-      <c r="CE43" t="n">
-        <v>1757699.968</v>
-      </c>
-      <c r="CF43" t="n">
-        <v>1781577.984</v>
-      </c>
-      <c r="CG43" t="n">
-        <v>1793777.024</v>
-      </c>
-      <c r="CH43" t="n">
-        <v>1789368.96</v>
-      </c>
-      <c r="CI43" t="n">
-        <v>1824866.944</v>
-      </c>
-      <c r="CJ43" t="n">
-        <v>1833070.976</v>
-      </c>
-      <c r="CK43" t="n">
-        <v>1787400.96</v>
-      </c>
-      <c r="CL43" t="n">
-        <v>1784253.056</v>
-      </c>
-      <c r="CM43" t="n">
-        <v>1806903.04</v>
-      </c>
-      <c r="CN43" t="n">
-        <v>1819580.032</v>
-      </c>
-      <c r="CO43" t="n">
-        <v>1855326.976</v>
-      </c>
-      <c r="CP43" t="n">
-        <v>1896893.056</v>
-      </c>
-      <c r="CQ43" t="n">
-        <v>1938326.016</v>
-      </c>
-      <c r="CR43" t="n">
-        <v>1985883.008</v>
-      </c>
-      <c r="CS43" t="n">
-        <v>2039894.016</v>
-      </c>
-      <c r="CT43" t="n">
-        <v>2277614.08</v>
-      </c>
-      <c r="CU43" t="n">
-        <v>2276730.112</v>
-      </c>
-      <c r="CV43" t="n">
-        <v>2061899.008</v>
-      </c>
-      <c r="CW43" t="n">
-        <v>2076344.96</v>
-      </c>
-      <c r="CX43" t="n">
-        <v>326024</v>
-      </c>
-      <c r="CY43" t="n">
-        <v>324359.008</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14300,114 +9584,6 @@
       <c r="BO44" t="n">
         <v>0</v>
       </c>
-      <c r="BP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14613,114 +9789,6 @@
       <c r="BO45" t="n">
         <v>0</v>
       </c>
-      <c r="BP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14926,114 +9994,6 @@
       <c r="BO46" t="n">
         <v>0</v>
       </c>
-      <c r="BP46" t="n">
-        <v>15290</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>3620294.912</v>
-      </c>
-      <c r="BR46" t="n">
-        <v>3658403.072</v>
-      </c>
-      <c r="BS46" t="n">
-        <v>3648078.08</v>
-      </c>
-      <c r="BT46" t="n">
-        <v>3643290.112</v>
-      </c>
-      <c r="BU46" t="n">
-        <v>3650396.928</v>
-      </c>
-      <c r="BV46" t="n">
-        <v>3651151.104</v>
-      </c>
-      <c r="BW46" t="n">
-        <v>3632771.072</v>
-      </c>
-      <c r="BX46" t="n">
-        <v>3659589.12</v>
-      </c>
-      <c r="BY46" t="n">
-        <v>3659812.096</v>
-      </c>
-      <c r="BZ46" t="n">
-        <v>3655860.992</v>
-      </c>
-      <c r="CA46" t="n">
-        <v>3650704.896</v>
-      </c>
-      <c r="CB46" t="n">
-        <v>3659592.96</v>
-      </c>
-      <c r="CC46" t="n">
-        <v>3660282.112</v>
-      </c>
-      <c r="CD46" t="n">
-        <v>3660380.928</v>
-      </c>
-      <c r="CE46" t="n">
-        <v>3661346.048</v>
-      </c>
-      <c r="CF46" t="n">
-        <v>3666003.968</v>
-      </c>
-      <c r="CG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ46" t="n">
-        <v>3672325.12</v>
-      </c>
-      <c r="CK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT46" t="n">
-        <v>3090195.968</v>
-      </c>
-      <c r="CU46" t="n">
-        <v>2857656.064</v>
-      </c>
-      <c r="CV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX46" t="n">
-        <v>2819213.056</v>
-      </c>
-      <c r="CY46" t="n">
-        <v>2819213.056</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15239,114 +10199,6 @@
       <c r="BO47" t="n">
         <v>296175.008</v>
       </c>
-      <c r="BP47" t="n">
-        <v>4309110.128</v>
-      </c>
-      <c r="BQ47" t="n">
-        <v>4894415.104</v>
-      </c>
-      <c r="BR47" t="n">
-        <v>5298231.039999999</v>
-      </c>
-      <c r="BS47" t="n">
-        <v>6135001.856000001</v>
-      </c>
-      <c r="BT47" t="n">
-        <v>6520676.864</v>
-      </c>
-      <c r="BU47" t="n">
-        <v>7419056.384000001</v>
-      </c>
-      <c r="BV47" t="n">
-        <v>7895126.784</v>
-      </c>
-      <c r="BW47" t="n">
-        <v>8721219.583999999</v>
-      </c>
-      <c r="BX47" t="n">
-        <v>9243400.704</v>
-      </c>
-      <c r="BY47" t="n">
-        <v>10090801.92</v>
-      </c>
-      <c r="BZ47" t="n">
-        <v>10673227.008</v>
-      </c>
-      <c r="CA47" t="n">
-        <v>10809424.384</v>
-      </c>
-      <c r="CB47" t="n">
-        <v>11701352.192</v>
-      </c>
-      <c r="CC47" t="n">
-        <v>11502000.896</v>
-      </c>
-      <c r="CD47" t="n">
-        <v>11944014.08</v>
-      </c>
-      <c r="CE47" t="n">
-        <v>11360145.152</v>
-      </c>
-      <c r="CF47" t="n">
-        <v>11204091.904</v>
-      </c>
-      <c r="CG47" t="n">
-        <v>9040130.048</v>
-      </c>
-      <c r="CH47" t="n">
-        <v>9132032</v>
-      </c>
-      <c r="CI47" t="n">
-        <v>9297953.791999999</v>
-      </c>
-      <c r="CJ47" t="n">
-        <v>11392617.472</v>
-      </c>
-      <c r="CK47" t="n">
-        <v>9257245.696</v>
-      </c>
-      <c r="CL47" t="n">
-        <v>9145915.392000001</v>
-      </c>
-      <c r="CM47" t="n">
-        <v>9155901.439999999</v>
-      </c>
-      <c r="CN47" t="n">
-        <v>9490853.888</v>
-      </c>
-      <c r="CO47" t="n">
-        <v>9516939.264</v>
-      </c>
-      <c r="CP47" t="n">
-        <v>9807283.199999999</v>
-      </c>
-      <c r="CQ47" t="n">
-        <v>9824113.664000001</v>
-      </c>
-      <c r="CR47" t="n">
-        <v>9890588.672</v>
-      </c>
-      <c r="CS47" t="n">
-        <v>10170376.192</v>
-      </c>
-      <c r="CT47" t="n">
-        <v>10571776.512</v>
-      </c>
-      <c r="CU47" t="n">
-        <v>10854681.856</v>
-      </c>
-      <c r="CV47" t="n">
-        <v>10928576.512</v>
-      </c>
-      <c r="CW47" t="n">
-        <v>11181455.36</v>
-      </c>
-      <c r="CX47" t="n">
-        <v>11697527.04</v>
-      </c>
-      <c r="CY47" t="n">
-        <v>11970729.216</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15552,114 +10404,6 @@
       <c r="BO48" t="n">
         <v>190000</v>
       </c>
-      <c r="BP48" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="BQ48" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="BR48" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="BS48" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="BT48" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="BU48" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="BV48" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="BW48" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="BX48" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="BY48" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="BZ48" t="n">
-        <v>4700000.256</v>
-      </c>
-      <c r="CA48" t="n">
-        <v>4700000.256</v>
-      </c>
-      <c r="CB48" t="n">
-        <v>4700000.256</v>
-      </c>
-      <c r="CC48" t="n">
-        <v>4700000.256</v>
-      </c>
-      <c r="CD48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CE48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CF48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CG48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CH48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CI48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CJ48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CK48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CL48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CM48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CN48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CO48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CP48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CQ48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CR48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CS48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CT48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CU48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CV48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CW48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CX48" t="n">
-        <v>5699999.744</v>
-      </c>
-      <c r="CY48" t="n">
-        <v>5699999.744</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15865,114 +10609,6 @@
       <c r="BO49" t="n">
         <v>0</v>
       </c>
-      <c r="BP49" t="n">
-        <v>-118624</v>
-      </c>
-      <c r="BQ49" t="n">
-        <v>-108724</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>-99903</v>
-      </c>
-      <c r="BS49" t="n">
-        <v>-84275</v>
-      </c>
-      <c r="BT49" t="n">
-        <v>-76343</v>
-      </c>
-      <c r="BU49" t="n">
-        <v>-92755</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>-71382</v>
-      </c>
-      <c r="BW49" t="n">
-        <v>-131236</v>
-      </c>
-      <c r="BX49" t="n">
-        <v>-119562</v>
-      </c>
-      <c r="BY49" t="n">
-        <v>-108573</v>
-      </c>
-      <c r="BZ49" t="n">
-        <v>-98793</v>
-      </c>
-      <c r="CA49" t="n">
-        <v>-78542</v>
-      </c>
-      <c r="CB49" t="n">
-        <v>-69962</v>
-      </c>
-      <c r="CC49" t="n">
-        <v>-68720</v>
-      </c>
-      <c r="CD49" t="n">
-        <v>-62155</v>
-      </c>
-      <c r="CE49" t="n">
-        <v>-64290</v>
-      </c>
-      <c r="CF49" t="n">
-        <v>-57980</v>
-      </c>
-      <c r="CG49" t="n">
-        <v>19426</v>
-      </c>
-      <c r="CH49" t="n">
-        <v>27718</v>
-      </c>
-      <c r="CI49" t="n">
-        <v>17992</v>
-      </c>
-      <c r="CJ49" t="n">
-        <v>-69197</v>
-      </c>
-      <c r="CK49" t="n">
-        <v>-15200</v>
-      </c>
-      <c r="CL49" t="n">
-        <v>-11779</v>
-      </c>
-      <c r="CM49" t="n">
-        <v>-19908</v>
-      </c>
-      <c r="CN49" t="n">
-        <v>-17286</v>
-      </c>
-      <c r="CO49" t="n">
-        <v>-11622</v>
-      </c>
-      <c r="CP49" t="n">
-        <v>-32240</v>
-      </c>
-      <c r="CQ49" t="n">
-        <v>-27198</v>
-      </c>
-      <c r="CR49" t="n">
-        <v>-21548</v>
-      </c>
-      <c r="CS49" t="n">
-        <v>-15015</v>
-      </c>
-      <c r="CT49" t="n">
-        <v>-51949</v>
-      </c>
-      <c r="CU49" t="n">
-        <v>-45648</v>
-      </c>
-      <c r="CV49" t="n">
-        <v>-42712</v>
-      </c>
-      <c r="CW49" t="n">
-        <v>-34350</v>
-      </c>
-      <c r="CX49" t="n">
-        <v>-47939</v>
-      </c>
-      <c r="CY49" t="n">
-        <v>-39942</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16178,114 +10814,6 @@
       <c r="BO50" t="n">
         <v>12543</v>
       </c>
-      <c r="BP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16491,114 +11019,6 @@
       <c r="BO51" t="n">
         <v>51031</v>
       </c>
-      <c r="BP51" t="n">
-        <v>2421765.12</v>
-      </c>
-      <c r="BQ51" t="n">
-        <v>2995255.04</v>
-      </c>
-      <c r="BR51" t="n">
-        <v>2894417.92</v>
-      </c>
-      <c r="BS51" t="n">
-        <v>3705274.112</v>
-      </c>
-      <c r="BT51" t="n">
-        <v>4083619.072</v>
-      </c>
-      <c r="BU51" t="n">
-        <v>5000007.168</v>
-      </c>
-      <c r="BV51" t="n">
-        <v>4455809.024</v>
-      </c>
-      <c r="BW51" t="n">
-        <v>5341644.8</v>
-      </c>
-      <c r="BX51" t="n">
-        <v>5851974.144</v>
-      </c>
-      <c r="BY51" t="n">
-        <v>6688238.08</v>
-      </c>
-      <c r="BZ51" t="n">
-        <v>6062315.008</v>
-      </c>
-      <c r="CA51" t="n">
-        <v>6176772.096</v>
-      </c>
-      <c r="CB51" t="n">
-        <v>7062499.84</v>
-      </c>
-      <c r="CC51" t="n">
-        <v>6860165.12</v>
-      </c>
-      <c r="CD51" t="n">
-        <v>6299000.832</v>
-      </c>
-      <c r="CE51" t="n">
-        <v>5718989.824</v>
-      </c>
-      <c r="CF51" t="n">
-        <v>5555124.224</v>
-      </c>
-      <c r="CG51" t="n">
-        <v>3271575.04</v>
-      </c>
-      <c r="CH51" t="n">
-        <v>3342460.928</v>
-      </c>
-      <c r="CI51" t="n">
-        <v>3584050.944</v>
-      </c>
-      <c r="CJ51" t="n">
-        <v>5716122.112</v>
-      </c>
-      <c r="CK51" t="n">
-        <v>3818953.984</v>
-      </c>
-      <c r="CL51" t="n">
-        <v>3768964.096</v>
-      </c>
-      <c r="CM51" t="n">
-        <v>3835725.056</v>
-      </c>
-      <c r="CN51" t="n">
-        <v>4031907.072</v>
-      </c>
-      <c r="CO51" t="n">
-        <v>4188017.92</v>
-      </c>
-      <c r="CP51" t="n">
-        <v>4304755.2</v>
-      </c>
-      <c r="CQ51" t="n">
-        <v>4441893.888</v>
-      </c>
-      <c r="CR51" t="n">
-        <v>4542988.8</v>
-      </c>
-      <c r="CS51" t="n">
-        <v>4662408.192</v>
-      </c>
-      <c r="CT51" t="n">
-        <v>4431568.896</v>
-      </c>
-      <c r="CU51" t="n">
-        <v>4704859.136</v>
-      </c>
-      <c r="CV51" t="n">
-        <v>5435318.784</v>
-      </c>
-      <c r="CW51" t="n">
-        <v>5679950.848</v>
-      </c>
-      <c r="CX51" t="n">
-        <v>5549782.016</v>
-      </c>
-      <c r="CY51" t="n">
-        <v>5814845.952</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -16804,114 +11224,6 @@
       <c r="BO52" t="n">
         <v>34014</v>
       </c>
-      <c r="BP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -17117,114 +11429,6 @@
       <c r="BO53" t="n">
         <v>8587</v>
       </c>
-      <c r="BP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -17430,114 +11634,6 @@
       <c r="BO54" t="n">
         <v>0</v>
       </c>
-      <c r="BP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -17743,114 +11839,6 @@
       <c r="BO55" t="n">
         <v>0</v>
       </c>
-      <c r="BP55" t="n">
-        <v>5969</v>
-      </c>
-      <c r="BQ55" t="n">
-        <v>7884</v>
-      </c>
-      <c r="BR55" t="n">
-        <v>3716</v>
-      </c>
-      <c r="BS55" t="n">
-        <v>14003</v>
-      </c>
-      <c r="BT55" t="n">
-        <v>13401</v>
-      </c>
-      <c r="BU55" t="n">
-        <v>11804</v>
-      </c>
-      <c r="BV55" t="n">
-        <v>10700</v>
-      </c>
-      <c r="BW55" t="n">
-        <v>10811</v>
-      </c>
-      <c r="BX55" t="n">
-        <v>10989</v>
-      </c>
-      <c r="BY55" t="n">
-        <v>11137</v>
-      </c>
-      <c r="BZ55" t="n">
-        <v>9705</v>
-      </c>
-      <c r="CA55" t="n">
-        <v>11194</v>
-      </c>
-      <c r="CB55" t="n">
-        <v>8814</v>
-      </c>
-      <c r="CC55" t="n">
-        <v>10556</v>
-      </c>
-      <c r="CD55" t="n">
-        <v>7168</v>
-      </c>
-      <c r="CE55" t="n">
-        <v>5445</v>
-      </c>
-      <c r="CF55" t="n">
-        <v>6948</v>
-      </c>
-      <c r="CG55" t="n">
-        <v>49129</v>
-      </c>
-      <c r="CH55" t="n">
-        <v>61853</v>
-      </c>
-      <c r="CI55" t="n">
-        <v>-4089</v>
-      </c>
-      <c r="CJ55" t="n">
-        <v>45693</v>
-      </c>
-      <c r="CK55" t="n">
-        <v>-246508</v>
-      </c>
-      <c r="CL55" t="n">
-        <v>-311270.016</v>
-      </c>
-      <c r="CM55" t="n">
-        <v>-359916</v>
-      </c>
-      <c r="CN55" t="n">
-        <v>-223767.008</v>
-      </c>
-      <c r="CO55" t="n">
-        <v>-359456.992</v>
-      </c>
-      <c r="CP55" t="n">
-        <v>-165232</v>
-      </c>
-      <c r="CQ55" t="n">
-        <v>-290582.016</v>
-      </c>
-      <c r="CR55" t="n">
-        <v>-330852</v>
-      </c>
-      <c r="CS55" t="n">
-        <v>-177016.992</v>
-      </c>
-      <c r="CT55" t="n">
-        <v>492156</v>
-      </c>
-      <c r="CU55" t="n">
-        <v>495471.008</v>
-      </c>
-      <c r="CV55" t="n">
-        <v>-164030</v>
-      </c>
-      <c r="CW55" t="n">
-        <v>-164146</v>
-      </c>
-      <c r="CX55" t="n">
-        <v>495684</v>
-      </c>
-      <c r="CY55" t="n">
-        <v>495824.992</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -18056,114 +12044,6 @@
       <c r="BO56" t="n">
         <v>0</v>
       </c>
-      <c r="BP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -18365,42 +12245,6 @@
       <c r="BO57" t="n">
         <v>0</v>
       </c>
-      <c r="BP57" t="inlineStr"/>
-      <c r="BQ57" t="inlineStr"/>
-      <c r="BR57" t="inlineStr"/>
-      <c r="BS57" t="inlineStr"/>
-      <c r="BT57" t="inlineStr"/>
-      <c r="BU57" t="inlineStr"/>
-      <c r="BV57" t="inlineStr"/>
-      <c r="BW57" t="inlineStr"/>
-      <c r="BX57" t="inlineStr"/>
-      <c r="BY57" t="inlineStr"/>
-      <c r="BZ57" t="inlineStr"/>
-      <c r="CA57" t="inlineStr"/>
-      <c r="CB57" t="inlineStr"/>
-      <c r="CC57" t="inlineStr"/>
-      <c r="CD57" t="inlineStr"/>
-      <c r="CE57" t="inlineStr"/>
-      <c r="CF57" t="inlineStr"/>
-      <c r="CG57" t="inlineStr"/>
-      <c r="CH57" t="inlineStr"/>
-      <c r="CI57" t="inlineStr"/>
-      <c r="CJ57" t="inlineStr"/>
-      <c r="CK57" t="inlineStr"/>
-      <c r="CL57" t="inlineStr"/>
-      <c r="CM57" t="inlineStr"/>
-      <c r="CN57" t="inlineStr"/>
-      <c r="CO57" t="inlineStr"/>
-      <c r="CP57" t="inlineStr"/>
-      <c r="CQ57" t="inlineStr"/>
-      <c r="CR57" t="inlineStr"/>
-      <c r="CS57" t="inlineStr"/>
-      <c r="CT57" t="inlineStr"/>
-      <c r="CU57" t="inlineStr"/>
-      <c r="CV57" t="inlineStr"/>
-      <c r="CW57" t="inlineStr"/>
-      <c r="CX57" t="inlineStr"/>
-      <c r="CY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -18602,42 +12446,6 @@
       <c r="BO58" t="n">
         <v>0</v>
       </c>
-      <c r="BP58" t="inlineStr"/>
-      <c r="BQ58" t="inlineStr"/>
-      <c r="BR58" t="inlineStr"/>
-      <c r="BS58" t="inlineStr"/>
-      <c r="BT58" t="inlineStr"/>
-      <c r="BU58" t="inlineStr"/>
-      <c r="BV58" t="inlineStr"/>
-      <c r="BW58" t="inlineStr"/>
-      <c r="BX58" t="inlineStr"/>
-      <c r="BY58" t="inlineStr"/>
-      <c r="BZ58" t="inlineStr"/>
-      <c r="CA58" t="inlineStr"/>
-      <c r="CB58" t="inlineStr"/>
-      <c r="CC58" t="inlineStr"/>
-      <c r="CD58" t="inlineStr"/>
-      <c r="CE58" t="inlineStr"/>
-      <c r="CF58" t="inlineStr"/>
-      <c r="CG58" t="inlineStr"/>
-      <c r="CH58" t="inlineStr"/>
-      <c r="CI58" t="inlineStr"/>
-      <c r="CJ58" t="inlineStr"/>
-      <c r="CK58" t="inlineStr"/>
-      <c r="CL58" t="inlineStr"/>
-      <c r="CM58" t="inlineStr"/>
-      <c r="CN58" t="inlineStr"/>
-      <c r="CO58" t="inlineStr"/>
-      <c r="CP58" t="inlineStr"/>
-      <c r="CQ58" t="inlineStr"/>
-      <c r="CR58" t="inlineStr"/>
-      <c r="CS58" t="inlineStr"/>
-      <c r="CT58" t="inlineStr"/>
-      <c r="CU58" t="inlineStr"/>
-      <c r="CV58" t="inlineStr"/>
-      <c r="CW58" t="inlineStr"/>
-      <c r="CX58" t="inlineStr"/>
-      <c r="CY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -18839,114 +12647,6 @@
       <c r="BO59" t="n">
         <v>211264.992</v>
       </c>
-      <c r="BP59" t="n">
-        <v>2351763.968</v>
-      </c>
-      <c r="BQ59" t="n">
-        <v>2795781.12</v>
-      </c>
-      <c r="BR59" t="n">
-        <v>2918056.96</v>
-      </c>
-      <c r="BS59" t="n">
-        <v>3056712.192</v>
-      </c>
-      <c r="BT59" t="n">
-        <v>3047898.112</v>
-      </c>
-      <c r="BU59" t="n">
-        <v>3069024</v>
-      </c>
-      <c r="BV59" t="n">
-        <v>3063367.936</v>
-      </c>
-      <c r="BW59" t="n">
-        <v>3120493.568</v>
-      </c>
-      <c r="BX59" t="n">
-        <v>2801303.04</v>
-      </c>
-      <c r="BY59" t="n">
-        <v>2831013.12</v>
-      </c>
-      <c r="BZ59" t="n">
-        <v>2930792.96</v>
-      </c>
-      <c r="CA59" t="n">
-        <v>3037231.872</v>
-      </c>
-      <c r="CB59" t="n">
-        <v>2784684.032</v>
-      </c>
-      <c r="CC59" t="n">
-        <v>2927305.984</v>
-      </c>
-      <c r="CD59" t="n">
-        <v>2962252.032</v>
-      </c>
-      <c r="CE59" t="n">
-        <v>3011596.8</v>
-      </c>
-      <c r="CF59" t="n">
-        <v>1432491.008</v>
-      </c>
-      <c r="CG59" t="n">
-        <v>1323582.976</v>
-      </c>
-      <c r="CH59" t="n">
-        <v>1254082.048</v>
-      </c>
-      <c r="CI59" t="n">
-        <v>7337149.44</v>
-      </c>
-      <c r="CJ59" t="n">
-        <v>1210985.984</v>
-      </c>
-      <c r="CK59" t="n">
-        <v>977718.0159999999</v>
-      </c>
-      <c r="CL59" t="n">
-        <v>1181671.04</v>
-      </c>
-      <c r="CM59" t="n">
-        <v>1305197.184</v>
-      </c>
-      <c r="CN59" t="n">
-        <v>1169234.048</v>
-      </c>
-      <c r="CO59" t="n">
-        <v>1173602.944</v>
-      </c>
-      <c r="CP59" t="n">
-        <v>1267376</v>
-      </c>
-      <c r="CQ59" t="n">
-        <v>1381796.224</v>
-      </c>
-      <c r="CR59" t="n">
-        <v>1333672.96</v>
-      </c>
-      <c r="CS59" t="n">
-        <v>2540197.888</v>
-      </c>
-      <c r="CT59" t="n">
-        <v>2636715.008</v>
-      </c>
-      <c r="CU59" t="n">
-        <v>-283296.768</v>
-      </c>
-      <c r="CV59" t="n">
-        <v>1585409.024</v>
-      </c>
-      <c r="CW59" t="n">
-        <v>2642076.928</v>
-      </c>
-      <c r="CX59" t="n">
-        <v>2619012.096</v>
-      </c>
-      <c r="CY59" t="n">
-        <v>-377243.904</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -19148,114 +12848,6 @@
       <c r="BO60" t="n">
         <v>-157858</v>
       </c>
-      <c r="BP60" t="n">
-        <v>-993369.9840000001</v>
-      </c>
-      <c r="BQ60" t="n">
-        <v>-1302763.008</v>
-      </c>
-      <c r="BR60" t="n">
-        <v>-1444909.056</v>
-      </c>
-      <c r="BS60" t="n">
-        <v>-1569642.112</v>
-      </c>
-      <c r="BT60" t="n">
-        <v>-1462932.992</v>
-      </c>
-      <c r="BU60" t="n">
-        <v>-1516907.008</v>
-      </c>
-      <c r="BV60" t="n">
-        <v>-1502248.96</v>
-      </c>
-      <c r="BW60" t="n">
-        <v>-1512670.208</v>
-      </c>
-      <c r="BX60" t="n">
-        <v>-1367628.032</v>
-      </c>
-      <c r="BY60" t="n">
-        <v>-1396126.976</v>
-      </c>
-      <c r="BZ60" t="n">
-        <v>-1495703.04</v>
-      </c>
-      <c r="CA60" t="n">
-        <v>-1514263.04</v>
-      </c>
-      <c r="CB60" t="n">
-        <v>-1434328.064</v>
-      </c>
-      <c r="CC60" t="n">
-        <v>-1568359.04</v>
-      </c>
-      <c r="CD60" t="n">
-        <v>-1611757.056</v>
-      </c>
-      <c r="CE60" t="n">
-        <v>-1628659.584</v>
-      </c>
-      <c r="CF60" t="n">
-        <v>-643921.9840000001</v>
-      </c>
-      <c r="CG60" t="n">
-        <v>-612540.032</v>
-      </c>
-      <c r="CH60" t="n">
-        <v>-641374.0159999999</v>
-      </c>
-      <c r="CI60" t="n">
-        <v>-5354372.096</v>
-      </c>
-      <c r="CJ60" t="n">
-        <v>-726334.976</v>
-      </c>
-      <c r="CK60" t="n">
-        <v>-642508.992</v>
-      </c>
-      <c r="CL60" t="n">
-        <v>-700531.008</v>
-      </c>
-      <c r="CM60" t="n">
-        <v>-751279.1040000001</v>
-      </c>
-      <c r="CN60" t="n">
-        <v>-751228.992</v>
-      </c>
-      <c r="CO60" t="n">
-        <v>-711606.0159999999</v>
-      </c>
-      <c r="CP60" t="n">
-        <v>-776147.968</v>
-      </c>
-      <c r="CQ60" t="n">
-        <v>-843258.048</v>
-      </c>
-      <c r="CR60" t="n">
-        <v>-815582.0159999999</v>
-      </c>
-      <c r="CS60" t="n">
-        <v>-1465539.968</v>
-      </c>
-      <c r="CT60" t="n">
-        <v>-1467806.976</v>
-      </c>
-      <c r="CU60" t="n">
-        <v>254065.856</v>
-      </c>
-      <c r="CV60" t="n">
-        <v>-876350.0159999999</v>
-      </c>
-      <c r="CW60" t="n">
-        <v>-1395950.976</v>
-      </c>
-      <c r="CX60" t="n">
-        <v>-1372369.024</v>
-      </c>
-      <c r="CY60" t="n">
-        <v>307625.024</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -19457,114 +13049,6 @@
       <c r="BO61" t="n">
         <v>53407</v>
       </c>
-      <c r="BP61" t="n">
-        <v>1358393.984</v>
-      </c>
-      <c r="BQ61" t="n">
-        <v>1493017.984</v>
-      </c>
-      <c r="BR61" t="n">
-        <v>1473148.032</v>
-      </c>
-      <c r="BS61" t="n">
-        <v>1487070.08</v>
-      </c>
-      <c r="BT61" t="n">
-        <v>1584964.992</v>
-      </c>
-      <c r="BU61" t="n">
-        <v>1552116.992</v>
-      </c>
-      <c r="BV61" t="n">
-        <v>1561118.976</v>
-      </c>
-      <c r="BW61" t="n">
-        <v>1607824</v>
-      </c>
-      <c r="BX61" t="n">
-        <v>1433675.008</v>
-      </c>
-      <c r="BY61" t="n">
-        <v>1434886.016</v>
-      </c>
-      <c r="BZ61" t="n">
-        <v>1435090.048</v>
-      </c>
-      <c r="CA61" t="n">
-        <v>1522968.832</v>
-      </c>
-      <c r="CB61" t="n">
-        <v>1350355.968</v>
-      </c>
-      <c r="CC61" t="n">
-        <v>1358946.944</v>
-      </c>
-      <c r="CD61" t="n">
-        <v>1350494.976</v>
-      </c>
-      <c r="CE61" t="n">
-        <v>1382937.216</v>
-      </c>
-      <c r="CF61" t="n">
-        <v>788569.024</v>
-      </c>
-      <c r="CG61" t="n">
-        <v>711043.008</v>
-      </c>
-      <c r="CH61" t="n">
-        <v>612707.968</v>
-      </c>
-      <c r="CI61" t="n">
-        <v>1982777.088</v>
-      </c>
-      <c r="CJ61" t="n">
-        <v>484651.008</v>
-      </c>
-      <c r="CK61" t="n">
-        <v>335208.992</v>
-      </c>
-      <c r="CL61" t="n">
-        <v>481140</v>
-      </c>
-      <c r="CM61" t="n">
-        <v>553918.0159999999</v>
-      </c>
-      <c r="CN61" t="n">
-        <v>418004.992</v>
-      </c>
-      <c r="CO61" t="n">
-        <v>461996.992</v>
-      </c>
-      <c r="CP61" t="n">
-        <v>491228</v>
-      </c>
-      <c r="CQ61" t="n">
-        <v>538537.9840000001</v>
-      </c>
-      <c r="CR61" t="n">
-        <v>518091.008</v>
-      </c>
-      <c r="CS61" t="n">
-        <v>1074658.048</v>
-      </c>
-      <c r="CT61" t="n">
-        <v>1168908.032</v>
-      </c>
-      <c r="CU61" t="n">
-        <v>-29231.104</v>
-      </c>
-      <c r="CV61" t="n">
-        <v>709059.008</v>
-      </c>
-      <c r="CW61" t="n">
-        <v>1246125.952</v>
-      </c>
-      <c r="CX61" t="n">
-        <v>1246642.944</v>
-      </c>
-      <c r="CY61" t="n">
-        <v>-69619.008</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -19766,114 +13250,6 @@
       <c r="BO62" t="n">
         <v>-23258</v>
       </c>
-      <c r="BP62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN62" t="n">
-        <v>-23883</v>
-      </c>
-      <c r="CO62" t="n">
-        <v>-20950</v>
-      </c>
-      <c r="CP62" t="n">
-        <v>-20908</v>
-      </c>
-      <c r="CQ62" t="n">
-        <v>-10322</v>
-      </c>
-      <c r="CR62" t="n">
-        <v>-21694</v>
-      </c>
-      <c r="CS62" t="n">
-        <v>-25331</v>
-      </c>
-      <c r="CT62" t="n">
-        <v>-28552</v>
-      </c>
-      <c r="CU62" t="n">
-        <v>-35971</v>
-      </c>
-      <c r="CV62" t="n">
-        <v>-12602</v>
-      </c>
-      <c r="CW62" t="n">
-        <v>-36044</v>
-      </c>
-      <c r="CX62" t="n">
-        <v>-50050</v>
-      </c>
-      <c r="CY62" t="n">
-        <v>-41236</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -20074,114 +13450,6 @@
       </c>
       <c r="BO63" t="n">
         <v>-9736</v>
-      </c>
-      <c r="BP63" t="n">
-        <v>-328271.008</v>
-      </c>
-      <c r="BQ63" t="n">
-        <v>-363216.992</v>
-      </c>
-      <c r="BR63" t="n">
-        <v>-369784</v>
-      </c>
-      <c r="BS63" t="n">
-        <v>-418673.984</v>
-      </c>
-      <c r="BT63" t="n">
-        <v>-424926.016</v>
-      </c>
-      <c r="BU63" t="n">
-        <v>-444230.016</v>
-      </c>
-      <c r="BV63" t="n">
-        <v>-416603.008</v>
-      </c>
-      <c r="BW63" t="n">
-        <v>-450799.936</v>
-      </c>
-      <c r="BX63" t="n">
-        <v>-352120</v>
-      </c>
-      <c r="BY63" t="n">
-        <v>-393952.992</v>
-      </c>
-      <c r="BZ63" t="n">
-        <v>-371556</v>
-      </c>
-      <c r="CA63" t="n">
-        <v>-378142.016</v>
-      </c>
-      <c r="CB63" t="n">
-        <v>-339892</v>
-      </c>
-      <c r="CC63" t="n">
-        <v>-376577.984</v>
-      </c>
-      <c r="CD63" t="n">
-        <v>-352900.992</v>
-      </c>
-      <c r="CE63" t="n">
-        <v>-357645.984</v>
-      </c>
-      <c r="CF63" t="n">
-        <v>-288179.008</v>
-      </c>
-      <c r="CG63" t="n">
-        <v>-307808.992</v>
-      </c>
-      <c r="CH63" t="n">
-        <v>-285588.992</v>
-      </c>
-      <c r="CI63" t="n">
-        <v>-1254909.056</v>
-      </c>
-      <c r="CJ63" t="n">
-        <v>-307436.992</v>
-      </c>
-      <c r="CK63" t="n">
-        <v>-434641.984</v>
-      </c>
-      <c r="CL63" t="n">
-        <v>-340019.008</v>
-      </c>
-      <c r="CM63" t="n">
-        <v>-216521.024</v>
-      </c>
-      <c r="CN63" t="n">
-        <v>-235504.992</v>
-      </c>
-      <c r="CO63" t="n">
-        <v>-232971.008</v>
-      </c>
-      <c r="CP63" t="n">
-        <v>-246426</v>
-      </c>
-      <c r="CQ63" t="n">
-        <v>-294929.984</v>
-      </c>
-      <c r="CR63" t="n">
-        <v>-296420</v>
-      </c>
-      <c r="CS63" t="n">
-        <v>-313848.992</v>
-      </c>
-      <c r="CT63" t="n">
-        <v>-337063.008</v>
-      </c>
-      <c r="CU63" t="n">
-        <v>-364638.944</v>
-      </c>
-      <c r="CV63" t="n">
-        <v>-329103.008</v>
-      </c>
-      <c r="CW63" t="n">
-        <v>-393969.984</v>
-      </c>
-      <c r="CX63" t="n">
-        <v>-394980</v>
-      </c>
-      <c r="CY63" t="n">
-        <v>-475049.984</v>
       </c>
     </row>
     <row r="64">
@@ -20340,114 +13608,6 @@
       <c r="BO64" t="n">
         <v>0</v>
       </c>
-      <c r="BP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -20649,114 +13809,6 @@
       <c r="BO65" t="n">
         <v>3633</v>
       </c>
-      <c r="BP65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS65" t="n">
-        <v>49625</v>
-      </c>
-      <c r="CT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU65" t="n">
-        <v>-49625</v>
-      </c>
-      <c r="CV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW65" t="n">
-        <v>383761.984</v>
-      </c>
-      <c r="CX65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY65" t="n">
-        <v>-217338.976</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -20958,114 +14010,6 @@
       <c r="BO66" t="n">
         <v>-4012</v>
       </c>
-      <c r="BP66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC66" t="n">
-        <v>-66110</v>
-      </c>
-      <c r="CD66" t="n">
-        <v>-78458</v>
-      </c>
-      <c r="CE66" t="n">
-        <v>-177598.016</v>
-      </c>
-      <c r="CF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN66" t="n">
-        <v>69493</v>
-      </c>
-      <c r="CO66" t="n">
-        <v>-87032</v>
-      </c>
-      <c r="CP66" t="n">
-        <v>-65642</v>
-      </c>
-      <c r="CQ66" t="n">
-        <v>-33252</v>
-      </c>
-      <c r="CR66" t="n">
-        <v>-37985</v>
-      </c>
-      <c r="CS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT66" t="n">
-        <v>-29407</v>
-      </c>
-      <c r="CU66" t="n">
-        <v>-93007.008</v>
-      </c>
-      <c r="CV66" t="n">
-        <v>-37602</v>
-      </c>
-      <c r="CW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX66" t="n">
-        <v>-34451</v>
-      </c>
-      <c r="CY66" t="n">
-        <v>72053</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -21267,114 +14211,6 @@
       <c r="BO67" t="n">
         <v>0</v>
       </c>
-      <c r="BP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC67" t="n">
-        <v>573</v>
-      </c>
-      <c r="CD67" t="n">
-        <v>-139</v>
-      </c>
-      <c r="CE67" t="n">
-        <v>8765</v>
-      </c>
-      <c r="CF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN67" t="n">
-        <v>28452</v>
-      </c>
-      <c r="CO67" t="n">
-        <v>93243</v>
-      </c>
-      <c r="CP67" t="n">
-        <v>110538</v>
-      </c>
-      <c r="CQ67" t="n">
-        <v>145573.024</v>
-      </c>
-      <c r="CR67" t="n">
-        <v>126264</v>
-      </c>
-      <c r="CS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU67" t="n">
-        <v>786849.024</v>
-      </c>
-      <c r="CV67" t="n">
-        <v>224800.992</v>
-      </c>
-      <c r="CW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY67" t="n">
-        <v>778014.976</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -21576,114 +14412,6 @@
       <c r="BO68" t="n">
         <v>-23758</v>
       </c>
-      <c r="BP68" t="n">
-        <v>329995.008</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>217354</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>258287.008</v>
-      </c>
-      <c r="BS68" t="n">
-        <v>297510.976</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>341256</v>
-      </c>
-      <c r="BU68" t="n">
-        <v>351830.016</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>370641.984</v>
-      </c>
-      <c r="BW68" t="n">
-        <v>387581.952</v>
-      </c>
-      <c r="BX68" t="n">
-        <v>403968.992</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>435129.984</v>
-      </c>
-      <c r="BZ68" t="n">
-        <v>477972.992</v>
-      </c>
-      <c r="CA68" t="n">
-        <v>437888.032</v>
-      </c>
-      <c r="CB68" t="n">
-        <v>389408.992</v>
-      </c>
-      <c r="CC68" t="n">
-        <v>323206.016</v>
-      </c>
-      <c r="CD68" t="n">
-        <v>292751.008</v>
-      </c>
-      <c r="CE68" t="n">
-        <v>241388.928</v>
-      </c>
-      <c r="CF68" t="n">
-        <v>230710</v>
-      </c>
-      <c r="CG68" t="n">
-        <v>126209</v>
-      </c>
-      <c r="CH68" t="n">
-        <v>111541</v>
-      </c>
-      <c r="CI68" t="n">
-        <v>90816.03200000001</v>
-      </c>
-      <c r="CJ68" t="n">
-        <v>50728</v>
-      </c>
-      <c r="CK68" t="n">
-        <v>38484</v>
-      </c>
-      <c r="CL68" t="n">
-        <v>8021</v>
-      </c>
-      <c r="CM68" t="n">
-        <v>13893</v>
-      </c>
-      <c r="CN68" t="n">
-        <v>48128</v>
-      </c>
-      <c r="CO68" t="n">
-        <v>-8943</v>
-      </c>
-      <c r="CP68" t="n">
-        <v>-38162</v>
-      </c>
-      <c r="CQ68" t="n">
-        <v>-74775</v>
-      </c>
-      <c r="CR68" t="n">
-        <v>-105295</v>
-      </c>
-      <c r="CS68" t="n">
-        <v>-100354</v>
-      </c>
-      <c r="CT68" t="n">
-        <v>-104874</v>
-      </c>
-      <c r="CU68" t="n">
-        <v>-206876.992</v>
-      </c>
-      <c r="CV68" t="n">
-        <v>-109168</v>
-      </c>
-      <c r="CW68" t="n">
-        <v>-49787</v>
-      </c>
-      <c r="CX68" t="n">
-        <v>-38372</v>
-      </c>
-      <c r="CY68" t="n">
-        <v>-117634.984</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -21885,114 +14613,6 @@
       <c r="BO69" t="n">
         <v>9018</v>
       </c>
-      <c r="BP69" t="n">
-        <v>518244.992</v>
-      </c>
-      <c r="BQ69" t="n">
-        <v>518854.016</v>
-      </c>
-      <c r="BR69" t="n">
-        <v>603696</v>
-      </c>
-      <c r="BS69" t="n">
-        <v>635882.112</v>
-      </c>
-      <c r="BT69" t="n">
-        <v>680030.976</v>
-      </c>
-      <c r="BU69" t="n">
-        <v>641784</v>
-      </c>
-      <c r="BV69" t="n">
-        <v>662686.976</v>
-      </c>
-      <c r="BW69" t="n">
-        <v>659344.96</v>
-      </c>
-      <c r="BX69" t="n">
-        <v>685798.0159999999</v>
-      </c>
-      <c r="BY69" t="n">
-        <v>661867.008</v>
-      </c>
-      <c r="BZ69" t="n">
-        <v>685217.024</v>
-      </c>
-      <c r="CA69" t="n">
-        <v>669643.904</v>
-      </c>
-      <c r="CB69" t="n">
-        <v>561614.0159999999</v>
-      </c>
-      <c r="CC69" t="n">
-        <v>481832.992</v>
-      </c>
-      <c r="CD69" t="n">
-        <v>446012.992</v>
-      </c>
-      <c r="CE69" t="n">
-        <v>393572.96</v>
-      </c>
-      <c r="CF69" t="n">
-        <v>328552.992</v>
-      </c>
-      <c r="CG69" t="n">
-        <v>263930</v>
-      </c>
-      <c r="CH69" t="n">
-        <v>273004</v>
-      </c>
-      <c r="CI69" t="n">
-        <v>435902.976</v>
-      </c>
-      <c r="CJ69" t="n">
-        <v>174654</v>
-      </c>
-      <c r="CK69" t="n">
-        <v>127144</v>
-      </c>
-      <c r="CL69" t="n">
-        <v>72429</v>
-      </c>
-      <c r="CM69" t="n">
-        <v>73369</v>
-      </c>
-      <c r="CN69" t="n">
-        <v>107046</v>
-      </c>
-      <c r="CO69" t="n">
-        <v>89613</v>
-      </c>
-      <c r="CP69" t="n">
-        <v>157668</v>
-      </c>
-      <c r="CQ69" t="n">
-        <v>186242.016</v>
-      </c>
-      <c r="CR69" t="n">
-        <v>216578</v>
-      </c>
-      <c r="CS69" t="n">
-        <v>296355.008</v>
-      </c>
-      <c r="CT69" t="n">
-        <v>349308</v>
-      </c>
-      <c r="CU69" t="n">
-        <v>350630.912</v>
-      </c>
-      <c r="CV69" t="n">
-        <v>453020.992</v>
-      </c>
-      <c r="CW69" t="n">
-        <v>453262.016</v>
-      </c>
-      <c r="CX69" t="n">
-        <v>504088.992</v>
-      </c>
-      <c r="CY69" t="n">
-        <v>456223.968</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -22194,114 +14814,6 @@
       <c r="BO70" t="n">
         <v>-32776</v>
       </c>
-      <c r="BP70" t="n">
-        <v>-188250</v>
-      </c>
-      <c r="BQ70" t="n">
-        <v>-301500</v>
-      </c>
-      <c r="BR70" t="n">
-        <v>-345408.992</v>
-      </c>
-      <c r="BS70" t="n">
-        <v>-338371.008</v>
-      </c>
-      <c r="BT70" t="n">
-        <v>-338775.008</v>
-      </c>
-      <c r="BU70" t="n">
-        <v>-289953.984</v>
-      </c>
-      <c r="BV70" t="n">
-        <v>-292044.992</v>
-      </c>
-      <c r="BW70" t="n">
-        <v>-271762.976</v>
-      </c>
-      <c r="BX70" t="n">
-        <v>-281828.992</v>
-      </c>
-      <c r="BY70" t="n">
-        <v>-226736.992</v>
-      </c>
-      <c r="BZ70" t="n">
-        <v>-207244</v>
-      </c>
-      <c r="CA70" t="n">
-        <v>-231756.032</v>
-      </c>
-      <c r="CB70" t="n">
-        <v>-172204.992</v>
-      </c>
-      <c r="CC70" t="n">
-        <v>-158627.008</v>
-      </c>
-      <c r="CD70" t="n">
-        <v>-153262</v>
-      </c>
-      <c r="CE70" t="n">
-        <v>-152184.016</v>
-      </c>
-      <c r="CF70" t="n">
-        <v>-97843</v>
-      </c>
-      <c r="CG70" t="n">
-        <v>-137720.992</v>
-      </c>
-      <c r="CH70" t="n">
-        <v>-161463.008</v>
-      </c>
-      <c r="CI70" t="n">
-        <v>-345086.976</v>
-      </c>
-      <c r="CJ70" t="n">
-        <v>-123926</v>
-      </c>
-      <c r="CK70" t="n">
-        <v>-88660</v>
-      </c>
-      <c r="CL70" t="n">
-        <v>-64408</v>
-      </c>
-      <c r="CM70" t="n">
-        <v>-59476.016</v>
-      </c>
-      <c r="CN70" t="n">
-        <v>-58918</v>
-      </c>
-      <c r="CO70" t="n">
-        <v>-98556</v>
-      </c>
-      <c r="CP70" t="n">
-        <v>-195830</v>
-      </c>
-      <c r="CQ70" t="n">
-        <v>-261017.024</v>
-      </c>
-      <c r="CR70" t="n">
-        <v>-321872.992</v>
-      </c>
-      <c r="CS70" t="n">
-        <v>-396708.992</v>
-      </c>
-      <c r="CT70" t="n">
-        <v>-454182.016</v>
-      </c>
-      <c r="CU70" t="n">
-        <v>-557507.968</v>
-      </c>
-      <c r="CV70" t="n">
-        <v>-562188.992</v>
-      </c>
-      <c r="CW70" t="n">
-        <v>-503048.992</v>
-      </c>
-      <c r="CX70" t="n">
-        <v>-542460.992</v>
-      </c>
-      <c r="CY70" t="n">
-        <v>-573859.072</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -22503,42 +15015,6 @@
       <c r="BO71" t="n">
         <v>0</v>
       </c>
-      <c r="BP71" t="inlineStr"/>
-      <c r="BQ71" t="inlineStr"/>
-      <c r="BR71" t="inlineStr"/>
-      <c r="BS71" t="inlineStr"/>
-      <c r="BT71" t="inlineStr"/>
-      <c r="BU71" t="inlineStr"/>
-      <c r="BV71" t="inlineStr"/>
-      <c r="BW71" t="inlineStr"/>
-      <c r="BX71" t="inlineStr"/>
-      <c r="BY71" t="inlineStr"/>
-      <c r="BZ71" t="inlineStr"/>
-      <c r="CA71" t="inlineStr"/>
-      <c r="CB71" t="inlineStr"/>
-      <c r="CC71" t="inlineStr"/>
-      <c r="CD71" t="inlineStr"/>
-      <c r="CE71" t="inlineStr"/>
-      <c r="CF71" t="inlineStr"/>
-      <c r="CG71" t="inlineStr"/>
-      <c r="CH71" t="inlineStr"/>
-      <c r="CI71" t="inlineStr"/>
-      <c r="CJ71" t="inlineStr"/>
-      <c r="CK71" t="inlineStr"/>
-      <c r="CL71" t="inlineStr"/>
-      <c r="CM71" t="inlineStr"/>
-      <c r="CN71" t="inlineStr"/>
-      <c r="CO71" t="inlineStr"/>
-      <c r="CP71" t="inlineStr"/>
-      <c r="CQ71" t="inlineStr"/>
-      <c r="CR71" t="inlineStr"/>
-      <c r="CS71" t="inlineStr"/>
-      <c r="CT71" t="inlineStr"/>
-      <c r="CU71" t="inlineStr"/>
-      <c r="CV71" t="inlineStr"/>
-      <c r="CW71" t="inlineStr"/>
-      <c r="CX71" t="inlineStr"/>
-      <c r="CY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -22740,42 +15216,6 @@
       <c r="BO72" t="n">
         <v>0</v>
       </c>
-      <c r="BP72" t="inlineStr"/>
-      <c r="BQ72" t="inlineStr"/>
-      <c r="BR72" t="inlineStr"/>
-      <c r="BS72" t="inlineStr"/>
-      <c r="BT72" t="inlineStr"/>
-      <c r="BU72" t="inlineStr"/>
-      <c r="BV72" t="inlineStr"/>
-      <c r="BW72" t="inlineStr"/>
-      <c r="BX72" t="inlineStr"/>
-      <c r="BY72" t="inlineStr"/>
-      <c r="BZ72" t="inlineStr"/>
-      <c r="CA72" t="inlineStr"/>
-      <c r="CB72" t="inlineStr"/>
-      <c r="CC72" t="inlineStr"/>
-      <c r="CD72" t="inlineStr"/>
-      <c r="CE72" t="inlineStr"/>
-      <c r="CF72" t="inlineStr"/>
-      <c r="CG72" t="inlineStr"/>
-      <c r="CH72" t="inlineStr"/>
-      <c r="CI72" t="inlineStr"/>
-      <c r="CJ72" t="inlineStr"/>
-      <c r="CK72" t="inlineStr"/>
-      <c r="CL72" t="inlineStr"/>
-      <c r="CM72" t="inlineStr"/>
-      <c r="CN72" t="inlineStr"/>
-      <c r="CO72" t="inlineStr"/>
-      <c r="CP72" t="inlineStr"/>
-      <c r="CQ72" t="inlineStr"/>
-      <c r="CR72" t="inlineStr"/>
-      <c r="CS72" t="inlineStr"/>
-      <c r="CT72" t="inlineStr"/>
-      <c r="CU72" t="inlineStr"/>
-      <c r="CV72" t="inlineStr"/>
-      <c r="CW72" t="inlineStr"/>
-      <c r="CX72" t="inlineStr"/>
-      <c r="CY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -22977,42 +15417,6 @@
       <c r="BO73" t="n">
         <v>0</v>
       </c>
-      <c r="BP73" t="inlineStr"/>
-      <c r="BQ73" t="inlineStr"/>
-      <c r="BR73" t="inlineStr"/>
-      <c r="BS73" t="inlineStr"/>
-      <c r="BT73" t="inlineStr"/>
-      <c r="BU73" t="inlineStr"/>
-      <c r="BV73" t="inlineStr"/>
-      <c r="BW73" t="inlineStr"/>
-      <c r="BX73" t="inlineStr"/>
-      <c r="BY73" t="inlineStr"/>
-      <c r="BZ73" t="inlineStr"/>
-      <c r="CA73" t="inlineStr"/>
-      <c r="CB73" t="inlineStr"/>
-      <c r="CC73" t="inlineStr"/>
-      <c r="CD73" t="inlineStr"/>
-      <c r="CE73" t="inlineStr"/>
-      <c r="CF73" t="inlineStr"/>
-      <c r="CG73" t="inlineStr"/>
-      <c r="CH73" t="inlineStr"/>
-      <c r="CI73" t="inlineStr"/>
-      <c r="CJ73" t="inlineStr"/>
-      <c r="CK73" t="inlineStr"/>
-      <c r="CL73" t="inlineStr"/>
-      <c r="CM73" t="inlineStr"/>
-      <c r="CN73" t="inlineStr"/>
-      <c r="CO73" t="inlineStr"/>
-      <c r="CP73" t="inlineStr"/>
-      <c r="CQ73" t="inlineStr"/>
-      <c r="CR73" t="inlineStr"/>
-      <c r="CS73" t="inlineStr"/>
-      <c r="CT73" t="inlineStr"/>
-      <c r="CU73" t="inlineStr"/>
-      <c r="CV73" t="inlineStr"/>
-      <c r="CW73" t="inlineStr"/>
-      <c r="CX73" t="inlineStr"/>
-      <c r="CY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -23214,114 +15618,6 @@
       <c r="BO74" t="n">
         <v>-3724</v>
       </c>
-      <c r="BP74" t="n">
-        <v>1360118.016</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>1347154.944</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>1361650.944</v>
-      </c>
-      <c r="BS74" t="n">
-        <v>1365906.944</v>
-      </c>
-      <c r="BT74" t="n">
-        <v>1501294.976</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>1459716.992</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>1515158.016</v>
-      </c>
-      <c r="BW74" t="n">
-        <v>1544605.952</v>
-      </c>
-      <c r="BX74" t="n">
-        <v>1485523.968</v>
-      </c>
-      <c r="BY74" t="n">
-        <v>1476062.976</v>
-      </c>
-      <c r="BZ74" t="n">
-        <v>1541506.944</v>
-      </c>
-      <c r="CA74" t="n">
-        <v>1582715.264</v>
-      </c>
-      <c r="CB74" t="n">
-        <v>1399873.024</v>
-      </c>
-      <c r="CC74" t="n">
-        <v>1240038.016</v>
-      </c>
-      <c r="CD74" t="n">
-        <v>1211747.968</v>
-      </c>
-      <c r="CE74" t="n">
-        <v>1097847.04</v>
-      </c>
-      <c r="CF74" t="n">
-        <v>731100.032</v>
-      </c>
-      <c r="CG74" t="n">
-        <v>529443.008</v>
-      </c>
-      <c r="CH74" t="n">
-        <v>438660</v>
-      </c>
-      <c r="CI74" t="n">
-        <v>818683.904</v>
-      </c>
-      <c r="CJ74" t="n">
-        <v>227942</v>
-      </c>
-      <c r="CK74" t="n">
-        <v>-60949</v>
-      </c>
-      <c r="CL74" t="n">
-        <v>149142</v>
-      </c>
-      <c r="CM74" t="n">
-        <v>351290.016</v>
-      </c>
-      <c r="CN74" t="n">
-        <v>304689.984</v>
-      </c>
-      <c r="CO74" t="n">
-        <v>205344</v>
-      </c>
-      <c r="CP74" t="n">
-        <v>230628</v>
-      </c>
-      <c r="CQ74" t="n">
-        <v>270832.032</v>
-      </c>
-      <c r="CR74" t="n">
-        <v>182960.992</v>
-      </c>
-      <c r="CS74" t="n">
-        <v>684748.992</v>
-      </c>
-      <c r="CT74" t="n">
-        <v>669011.968</v>
-      </c>
-      <c r="CU74" t="n">
-        <v>7499.104</v>
-      </c>
-      <c r="CV74" t="n">
-        <v>445384.992</v>
-      </c>
-      <c r="CW74" t="n">
-        <v>1150087.04</v>
-      </c>
-      <c r="CX74" t="n">
-        <v>728790.0159999999</v>
-      </c>
-      <c r="CY74" t="n">
-        <v>-70811.03999999999</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -23523,114 +15819,6 @@
       <c r="BO75" t="n">
         <v>-5286</v>
       </c>
-      <c r="BP75" t="n">
-        <v>-477120.992</v>
-      </c>
-      <c r="BQ75" t="n">
-        <v>-453759.008</v>
-      </c>
-      <c r="BR75" t="n">
-        <v>-373340</v>
-      </c>
-      <c r="BS75" t="n">
-        <v>-508918.944</v>
-      </c>
-      <c r="BT75" t="n">
-        <v>-540540.032</v>
-      </c>
-      <c r="BU75" t="n">
-        <v>-565211.008</v>
-      </c>
-      <c r="BV75" t="n">
-        <v>-472651.008</v>
-      </c>
-      <c r="BW75" t="n">
-        <v>-522464.896</v>
-      </c>
-      <c r="BX75" t="n">
-        <v>-496008.992</v>
-      </c>
-      <c r="BY75" t="n">
-        <v>-376212.992</v>
-      </c>
-      <c r="BZ75" t="n">
-        <v>-545761.9840000001</v>
-      </c>
-      <c r="CA75" t="n">
-        <v>-475765.024</v>
-      </c>
-      <c r="CB75" t="n">
-        <v>-330491.008</v>
-      </c>
-      <c r="CC75" t="n">
-        <v>-345686.016</v>
-      </c>
-      <c r="CD75" t="n">
-        <v>-462691.008</v>
-      </c>
-      <c r="CE75" t="n">
-        <v>-346110.016</v>
-      </c>
-      <c r="CF75" t="n">
-        <v>-202535.008</v>
-      </c>
-      <c r="CG75" t="n">
-        <v>-79929</v>
-      </c>
-      <c r="CH75" t="n">
-        <v>-56256</v>
-      </c>
-      <c r="CI75" t="n">
-        <v>-433622.976</v>
-      </c>
-      <c r="CJ75" t="n">
-        <v>1891</v>
-      </c>
-      <c r="CK75" t="n">
-        <v>-31405</v>
-      </c>
-      <c r="CL75" t="n">
-        <v>-92298</v>
-      </c>
-      <c r="CM75" t="n">
-        <v>-81588.992</v>
-      </c>
-      <c r="CN75" t="n">
-        <v>-22845</v>
-      </c>
-      <c r="CO75" t="n">
-        <v>-51792</v>
-      </c>
-      <c r="CP75" t="n">
-        <v>-37450</v>
-      </c>
-      <c r="CQ75" t="n">
-        <v>73915</v>
-      </c>
-      <c r="CR75" t="n">
-        <v>-55132</v>
-      </c>
-      <c r="CS75" t="n">
-        <v>-181312</v>
-      </c>
-      <c r="CT75" t="n">
-        <v>-159384.992</v>
-      </c>
-      <c r="CU75" t="n">
-        <v>299148.992</v>
-      </c>
-      <c r="CV75" t="n">
-        <v>-48567</v>
-      </c>
-      <c r="CW75" t="n">
-        <v>-110626</v>
-      </c>
-      <c r="CX75" t="n">
-        <v>-136890</v>
-      </c>
-      <c r="CY75" t="n">
-        <v>300561.984</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -23832,114 +16020,6 @@
       <c r="BO76" t="n">
         <v>6473</v>
       </c>
-      <c r="BP76" t="n">
-        <v>43169</v>
-      </c>
-      <c r="BQ76" t="n">
-        <v>14160</v>
-      </c>
-      <c r="BR76" t="n">
-        <v>-69769</v>
-      </c>
-      <c r="BS76" t="n">
-        <v>42181</v>
-      </c>
-      <c r="BT76" t="n">
-        <v>77500</v>
-      </c>
-      <c r="BU76" t="n">
-        <v>135198</v>
-      </c>
-      <c r="BV76" t="n">
-        <v>8965</v>
-      </c>
-      <c r="BW76" t="n">
-        <v>41924.008</v>
-      </c>
-      <c r="BX76" t="n">
-        <v>56319</v>
-      </c>
-      <c r="BY76" t="n">
-        <v>-59358</v>
-      </c>
-      <c r="BZ76" t="n">
-        <v>74311</v>
-      </c>
-      <c r="CA76" t="n">
-        <v>1297</v>
-      </c>
-      <c r="CB76" t="n">
-        <v>-12391</v>
-      </c>
-      <c r="CC76" t="n">
-        <v>-24009</v>
-      </c>
-      <c r="CD76" t="n">
-        <v>102823</v>
-      </c>
-      <c r="CE76" t="n">
-        <v>28484</v>
-      </c>
-      <c r="CF76" t="n">
-        <v>19967</v>
-      </c>
-      <c r="CG76" t="n">
-        <v>-18361</v>
-      </c>
-      <c r="CH76" t="n">
-        <v>-24341</v>
-      </c>
-      <c r="CI76" t="n">
-        <v>66750</v>
-      </c>
-      <c r="CJ76" t="n">
-        <v>-63030</v>
-      </c>
-      <c r="CK76" t="n">
-        <v>17147</v>
-      </c>
-      <c r="CL76" t="n">
-        <v>43593</v>
-      </c>
-      <c r="CM76" t="n">
-        <v>28515</v>
-      </c>
-      <c r="CN76" t="n">
-        <v>-40583</v>
-      </c>
-      <c r="CO76" t="n">
-        <v>26860</v>
-      </c>
-      <c r="CP76" t="n">
-        <v>18764</v>
-      </c>
-      <c r="CQ76" t="n">
-        <v>-7892</v>
-      </c>
-      <c r="CR76" t="n">
-        <v>56728</v>
-      </c>
-      <c r="CS76" t="n">
-        <v>46723</v>
-      </c>
-      <c r="CT76" t="n">
-        <v>-9622</v>
-      </c>
-      <c r="CU76" t="n">
-        <v>28157</v>
-      </c>
-      <c r="CV76" t="n">
-        <v>44024</v>
-      </c>
-      <c r="CW76" t="n">
-        <v>-214386</v>
-      </c>
-      <c r="CX76" t="n">
-        <v>-49325</v>
-      </c>
-      <c r="CY76" t="n">
-        <v>48595</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -24141,42 +16221,6 @@
       <c r="BO77" t="n">
         <v>0</v>
       </c>
-      <c r="BP77" t="inlineStr"/>
-      <c r="BQ77" t="inlineStr"/>
-      <c r="BR77" t="inlineStr"/>
-      <c r="BS77" t="inlineStr"/>
-      <c r="BT77" t="inlineStr"/>
-      <c r="BU77" t="inlineStr"/>
-      <c r="BV77" t="inlineStr"/>
-      <c r="BW77" t="inlineStr"/>
-      <c r="BX77" t="inlineStr"/>
-      <c r="BY77" t="inlineStr"/>
-      <c r="BZ77" t="inlineStr"/>
-      <c r="CA77" t="inlineStr"/>
-      <c r="CB77" t="inlineStr"/>
-      <c r="CC77" t="inlineStr"/>
-      <c r="CD77" t="inlineStr"/>
-      <c r="CE77" t="inlineStr"/>
-      <c r="CF77" t="inlineStr"/>
-      <c r="CG77" t="inlineStr"/>
-      <c r="CH77" t="inlineStr"/>
-      <c r="CI77" t="inlineStr"/>
-      <c r="CJ77" t="inlineStr"/>
-      <c r="CK77" t="inlineStr"/>
-      <c r="CL77" t="inlineStr"/>
-      <c r="CM77" t="inlineStr"/>
-      <c r="CN77" t="inlineStr"/>
-      <c r="CO77" t="inlineStr"/>
-      <c r="CP77" t="inlineStr"/>
-      <c r="CQ77" t="inlineStr"/>
-      <c r="CR77" t="inlineStr"/>
-      <c r="CS77" t="inlineStr"/>
-      <c r="CT77" t="inlineStr"/>
-      <c r="CU77" t="inlineStr"/>
-      <c r="CV77" t="inlineStr"/>
-      <c r="CW77" t="inlineStr"/>
-      <c r="CX77" t="inlineStr"/>
-      <c r="CY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -24378,42 +16422,6 @@
       <c r="BO78" t="n">
         <v>0</v>
       </c>
-      <c r="BP78" t="inlineStr"/>
-      <c r="BQ78" t="inlineStr"/>
-      <c r="BR78" t="inlineStr"/>
-      <c r="BS78" t="inlineStr"/>
-      <c r="BT78" t="inlineStr"/>
-      <c r="BU78" t="inlineStr"/>
-      <c r="BV78" t="inlineStr"/>
-      <c r="BW78" t="inlineStr"/>
-      <c r="BX78" t="inlineStr"/>
-      <c r="BY78" t="inlineStr"/>
-      <c r="BZ78" t="inlineStr"/>
-      <c r="CA78" t="inlineStr"/>
-      <c r="CB78" t="inlineStr"/>
-      <c r="CC78" t="inlineStr"/>
-      <c r="CD78" t="inlineStr"/>
-      <c r="CE78" t="inlineStr"/>
-      <c r="CF78" t="inlineStr"/>
-      <c r="CG78" t="inlineStr"/>
-      <c r="CH78" t="inlineStr"/>
-      <c r="CI78" t="inlineStr"/>
-      <c r="CJ78" t="inlineStr"/>
-      <c r="CK78" t="inlineStr"/>
-      <c r="CL78" t="inlineStr"/>
-      <c r="CM78" t="inlineStr"/>
-      <c r="CN78" t="inlineStr"/>
-      <c r="CO78" t="inlineStr"/>
-      <c r="CP78" t="inlineStr"/>
-      <c r="CQ78" t="inlineStr"/>
-      <c r="CR78" t="inlineStr"/>
-      <c r="CS78" t="inlineStr"/>
-      <c r="CT78" t="inlineStr"/>
-      <c r="CU78" t="inlineStr"/>
-      <c r="CV78" t="inlineStr"/>
-      <c r="CW78" t="inlineStr"/>
-      <c r="CX78" t="inlineStr"/>
-      <c r="CY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -24615,82 +16623,6 @@
       <c r="BO79" t="n">
         <v>0</v>
       </c>
-      <c r="BP79" t="n">
-        <v>-14317</v>
-      </c>
-      <c r="BQ79" t="n">
-        <v>-38108</v>
-      </c>
-      <c r="BR79" t="n">
-        <v>-41086</v>
-      </c>
-      <c r="BS79" t="n">
-        <v>-46485.992</v>
-      </c>
-      <c r="BT79" t="n">
-        <v>-42866</v>
-      </c>
-      <c r="BU79" t="n">
-        <v>-40537</v>
-      </c>
-      <c r="BV79" t="n">
-        <v>-42136</v>
-      </c>
-      <c r="BW79" t="n">
-        <v>-52507</v>
-      </c>
-      <c r="BX79" t="n">
-        <v>-44070</v>
-      </c>
-      <c r="BY79" t="n">
-        <v>-46238</v>
-      </c>
-      <c r="BZ79" t="n">
-        <v>-52924</v>
-      </c>
-      <c r="CA79" t="n">
-        <v>-65319.008</v>
-      </c>
-      <c r="CB79" t="n">
-        <v>-49941</v>
-      </c>
-      <c r="CC79" t="n">
-        <v>-52834</v>
-      </c>
-      <c r="CD79" t="n">
-        <v>-58664</v>
-      </c>
-      <c r="CE79" t="n">
-        <v>-56087</v>
-      </c>
-      <c r="CF79" t="inlineStr"/>
-      <c r="CG79" t="inlineStr"/>
-      <c r="CH79" t="inlineStr"/>
-      <c r="CI79" t="inlineStr"/>
-      <c r="CJ79" t="inlineStr"/>
-      <c r="CK79" t="inlineStr"/>
-      <c r="CL79" t="inlineStr"/>
-      <c r="CM79" t="inlineStr"/>
-      <c r="CN79" t="inlineStr"/>
-      <c r="CO79" t="inlineStr"/>
-      <c r="CP79" t="inlineStr"/>
-      <c r="CQ79" t="inlineStr"/>
-      <c r="CR79" t="inlineStr"/>
-      <c r="CS79" t="n">
-        <v>-73424</v>
-      </c>
-      <c r="CT79" t="n">
-        <v>-77864</v>
-      </c>
-      <c r="CU79" t="inlineStr"/>
-      <c r="CV79" t="inlineStr"/>
-      <c r="CW79" t="n">
-        <v>-116512</v>
-      </c>
-      <c r="CX79" t="n">
-        <v>-85792</v>
-      </c>
-      <c r="CY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -24892,114 +16824,6 @@
       <c r="BO80" t="n">
         <v>-2537</v>
       </c>
-      <c r="BP80" t="n">
-        <v>911849.024</v>
-      </c>
-      <c r="BQ80" t="n">
-        <v>869448</v>
-      </c>
-      <c r="BR80" t="n">
-        <v>877456</v>
-      </c>
-      <c r="BS80" t="n">
-        <v>852683.008</v>
-      </c>
-      <c r="BT80" t="n">
-        <v>995388.992</v>
-      </c>
-      <c r="BU80" t="n">
-        <v>989166.976</v>
-      </c>
-      <c r="BV80" t="n">
-        <v>1009336</v>
-      </c>
-      <c r="BW80" t="n">
-        <v>1011558.016</v>
-      </c>
-      <c r="BX80" t="n">
-        <v>1001763.968</v>
-      </c>
-      <c r="BY80" t="n">
-        <v>994254.0159999999</v>
-      </c>
-      <c r="BZ80" t="n">
-        <v>1017132.032</v>
-      </c>
-      <c r="CA80" t="n">
-        <v>1042928.064</v>
-      </c>
-      <c r="CB80" t="n">
-        <v>1007049.984</v>
-      </c>
-      <c r="CC80" t="n">
-        <v>817508.992</v>
-      </c>
-      <c r="CD80" t="n">
-        <v>793216</v>
-      </c>
-      <c r="CE80" t="n">
-        <v>724134.0159999999</v>
-      </c>
-      <c r="CF80" t="n">
-        <v>548531.968</v>
-      </c>
-      <c r="CG80" t="n">
-        <v>431152.992</v>
-      </c>
-      <c r="CH80" t="n">
-        <v>358063.008</v>
-      </c>
-      <c r="CI80" t="n">
-        <v>246078.976</v>
-      </c>
-      <c r="CJ80" t="n">
-        <v>166803.008</v>
-      </c>
-      <c r="CK80" t="n">
-        <v>-75207</v>
-      </c>
-      <c r="CL80" t="n">
-        <v>100437</v>
-      </c>
-      <c r="CM80" t="n">
-        <v>298216</v>
-      </c>
-      <c r="CN80" t="n">
-        <v>241262</v>
-      </c>
-      <c r="CO80" t="n">
-        <v>180412</v>
-      </c>
-      <c r="CP80" t="n">
-        <v>211942</v>
-      </c>
-      <c r="CQ80" t="n">
-        <v>336854.976</v>
-      </c>
-      <c r="CR80" t="n">
-        <v>184556.992</v>
-      </c>
-      <c r="CS80" t="n">
-        <v>476736</v>
-      </c>
-      <c r="CT80" t="n">
-        <v>422140.992</v>
-      </c>
-      <c r="CU80" t="n">
-        <v>486093.056</v>
-      </c>
-      <c r="CV80" t="n">
-        <v>440841.984</v>
-      </c>
-      <c r="CW80" t="n">
-        <v>708563.008</v>
-      </c>
-      <c r="CX80" t="n">
-        <v>456783.008</v>
-      </c>
-      <c r="CY80" t="n">
-        <v>480650.016</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
